--- a/RBS Collection/RBS Collection.xlsx
+++ b/RBS Collection/RBS Collection.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabi\Documents\GitHub\iGEM-distribution\RBS Collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tracihaddock/Git/iGEM-distribution/RBS Collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D239AA6-2FB3-FE42-A644-B014020C7403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1356" windowWidth="34056" windowHeight="19800"/>
+    <workbookView xWindow="29640" yWindow="2980" windowWidth="36360" windowHeight="21080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts and Devices" sheetId="1" r:id="rId1"/>
@@ -20,11 +21,24 @@
     <sheet name="data_source" sheetId="6" r:id="rId6"/>
     <sheet name="template_information" sheetId="7" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Ontology Terms'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7miW6g6zRmueViZFkusAasilJg/+wQ=="/>
     </ext>
@@ -33,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7675" uniqueCount="7595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7629" uniqueCount="7572">
   <si>
     <t>Collection Name</t>
   </si>
@@ -22700,191 +22714,122 @@
     <t>Collection of most used RBSs</t>
   </si>
   <si>
-    <t>B0030</t>
-  </si>
-  <si>
-    <t>B0034</t>
-  </si>
-  <si>
-    <t>RBS (Elowitz 1999) -- defines RBS efficiency</t>
-  </si>
-  <si>
-    <t>RBS.1 (strong) -- modified from R. Weiss</t>
-  </si>
-  <si>
-    <t>RBS.3 (medium) -- derivative of BBa_0030</t>
-  </si>
-  <si>
-    <t>RBS.2 (weak) -- derivative of BBa_0030</t>
-  </si>
-  <si>
-    <t>RBS.4 (weaker) -- derivative of BBa_0030</t>
-  </si>
-  <si>
-    <t>Ribosome Binding Site Family Member</t>
-  </si>
-  <si>
     <t>Medium strength T7.2 RBS</t>
   </si>
   <si>
-    <t>Strong T7.2 RBS</t>
-  </si>
-  <si>
-    <t>B0034 with scar TACTAG</t>
-  </si>
-  <si>
-    <t>MoClo RBS B0034</t>
-  </si>
-  <si>
-    <t>Kozak</t>
-  </si>
-  <si>
-    <t>Kozak sequence (yeast RBS)</t>
-  </si>
-  <si>
-    <t>strong synthetic E. coli ribosome binding site with SacI site.</t>
-  </si>
-  <si>
-    <t>strong T7 RBS</t>
-  </si>
-  <si>
-    <t>RBS</t>
-  </si>
-  <si>
-    <t>RBS BBa_B0034 with inversed Pre- and Suffix</t>
-  </si>
-  <si>
     <t>SpoVG ribosome binding site (RBS) for B. subtilis</t>
   </si>
   <si>
-    <t>RBS - recognized by &lt;i&gt;Corynebacterium glutamicum&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>BBa_B0034</t>
-  </si>
-  <si>
-    <t>BBa_B0030</t>
-  </si>
-  <si>
-    <t>BBa_B0032</t>
-  </si>
-  <si>
-    <t>BBa_B0031</t>
-  </si>
-  <si>
-    <t>BBa_B0033</t>
-  </si>
-  <si>
-    <t>BBa_J61100</t>
-  </si>
-  <si>
     <t>BBa_Z0262</t>
   </si>
   <si>
-    <t>BBa_J61101</t>
-  </si>
-  <si>
-    <t>BBa_Z0261</t>
-  </si>
-  <si>
-    <t>BBa_K2066527</t>
-  </si>
-  <si>
-    <t>BBa_K2406216</t>
-  </si>
-  <si>
-    <t>BBa_J176012</t>
-  </si>
-  <si>
-    <t>BBa_K165002</t>
-  </si>
-  <si>
-    <t>BBa_J15001</t>
-  </si>
-  <si>
-    <t>BBa_K1362090</t>
-  </si>
-  <si>
-    <t>BBa_K2933024</t>
-  </si>
-  <si>
-    <t>BBa_K1045010</t>
-  </si>
-  <si>
     <t>BBa_K143021</t>
   </si>
   <si>
     <t>BBa_K2963006</t>
   </si>
   <si>
-    <t>B0031</t>
-  </si>
-  <si>
-    <t>B0033</t>
-  </si>
-  <si>
-    <t>J61100</t>
-  </si>
-  <si>
     <t>Z0262</t>
   </si>
   <si>
-    <t>J61101</t>
-  </si>
-  <si>
-    <t>Z0261</t>
-  </si>
-  <si>
-    <t>K2066527</t>
-  </si>
-  <si>
-    <t>K2406216</t>
-  </si>
-  <si>
-    <t>J176012</t>
-  </si>
-  <si>
-    <t>K165002</t>
-  </si>
-  <si>
-    <t>J15001</t>
-  </si>
-  <si>
-    <t>K1362090</t>
-  </si>
-  <si>
-    <t>K2933024</t>
-  </si>
-  <si>
-    <t>K1045010</t>
-  </si>
-  <si>
     <t>K143021</t>
   </si>
   <si>
     <t>K2963006</t>
   </si>
   <si>
-    <t>K2656011</t>
-  </si>
-  <si>
-    <t>Bba_K2656011</t>
-  </si>
-  <si>
-    <t>Golden Braid B0034 with TACTAG</t>
-  </si>
-  <si>
     <t>RBSs in vector</t>
   </si>
   <si>
-    <t xml:space="preserve">BBa_B0034, BBa_B0030, BBa_B0032, BBa_B0031, BBa_B0033, BBa_J61100, BBa_Z0262, BBa_J61101, BBa_Z0261, BBa_K2066527, BBa_K2406216, Bba_K2656011, BBa_J176012, BBa_K165002, BBa_J15001, BBa_K1362090, BBa_K2933024, BBa_K1045010, BBa_K143021, BBa_K2963006 </t>
+    <t>BBa_B0034_m1</t>
+  </si>
+  <si>
+    <t>B0034 for MoClo Level 0 with 7bp scar</t>
+  </si>
+  <si>
+    <t>agag aaagaggagaaa tactag</t>
+  </si>
+  <si>
+    <t>BBa_B0034_m0</t>
+  </si>
+  <si>
+    <t>B0034 for MoClo Level 0 with 6bp scar</t>
+  </si>
+  <si>
+    <t>agag aaagaggagaaa tacta</t>
+  </si>
+  <si>
+    <t>BBa_B0033_m0</t>
+  </si>
+  <si>
+    <t>B0033 for MoClo Level 0 with 6bp scar</t>
+  </si>
+  <si>
+    <t>agag tcacacaggac tacta</t>
+  </si>
+  <si>
+    <t>BBa_B0032_m0</t>
+  </si>
+  <si>
+    <t>B0032 for MoClo Level 0 with 6bp scar</t>
+  </si>
+  <si>
+    <t>agag tcacacaggaaag tacta</t>
+  </si>
+  <si>
+    <t>BBa_B0031_m0</t>
+  </si>
+  <si>
+    <t>B0031 for MoClo Level 0 with 6bp scar</t>
+  </si>
+  <si>
+    <t>agag tcacacaggaaacc tacta</t>
+  </si>
+  <si>
+    <t>BBa_B0030_m0</t>
+  </si>
+  <si>
+    <t>B0030 for MoClo Level 0 with 6bp scar</t>
+  </si>
+  <si>
+    <t>agag attaaagaggagaaa tacta</t>
+  </si>
+  <si>
+    <t>gggccc aagttcactt aaaaaggaga tcaacaatga aagcaatttt cgtactgaaa catcttaatc atgcacagga gactttct</t>
+  </si>
+  <si>
+    <t>BCD1</t>
+  </si>
+  <si>
+    <t>Bicistronic design (BCD) element</t>
+  </si>
+  <si>
+    <t>BCD8</t>
+  </si>
+  <si>
+    <t>BCD12</t>
+  </si>
+  <si>
+    <t>BCD13</t>
+  </si>
+  <si>
+    <t>gggccc aagttcactt aaaaaggaga tcaacaatga aagcaatttt cgtactgaaa catcttaatc atgcatcgga ccgtttct</t>
+  </si>
+  <si>
+    <t>gggccc aagttcactt aaaaaggaga tcaacaatga aagcaatttt cgtactgaaa catcttaatc atgctgcgga gggtttct</t>
+  </si>
+  <si>
+    <t>gggccc aagttcactt aaaaaggaga tcaacaatga aagcaatttt cgtactgaaa catcttaatc atgcaatgga ggctttct</t>
+  </si>
+  <si>
+    <t>RBS - recognized by Corynebacterium glutamicum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -22962,21 +22907,8 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Lato"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -23086,6 +23018,26 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Lato"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -23245,9 +23197,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -23267,64 +23219,70 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
@@ -23491,27 +23449,27 @@
     </dxf>
   </dxfs>
   <tableStyles count="5">
-    <tableStyle name="Basic Parts-style" pivot="0" count="3">
+    <tableStyle name="Basic Parts-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="firstRowStripe" dxfId="15"/>
       <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="Composite Parts-style" pivot="0" count="3">
+    <tableStyle name="Composite Parts-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="firstRowStripe" dxfId="12"/>
       <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="Composite Parts-style 2" pivot="0" count="3">
+    <tableStyle name="Composite Parts-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
       <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="Composite Parts-style 3" pivot="0" count="3">
+    <tableStyle name="Composite Parts-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="Composite Parts-style 4" pivot="0" count="3">
+    <tableStyle name="Composite Parts-style 4" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -23528,22 +23486,37 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Ontology Terms"/>
+      <sheetName val="Organism Terms"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A14:M38" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A14:M38" headerRowCount="0">
   <tableColumns count="13">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
-    <tableColumn id="7" name="Column7"/>
-    <tableColumn id="8" name="Column8"/>
-    <tableColumn id="9" name="Column9"/>
-    <tableColumn id="10" name="Column10"/>
-    <tableColumn id="11" name="Column11"/>
-    <tableColumn id="12" name="Column12" dataDxfId="1"/>
-    <tableColumn id="13" name="Column13" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -23555,23 +23528,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_3" displayName="Table_3" ref="A13:O20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_3" displayName="Table_3" ref="A13:O20">
   <tableColumns count="15">
-    <tableColumn id="1" name="Part/Library Name"/>
-    <tableColumn id="2" name="Design Notes"/>
-    <tableColumn id="3" name="Part Description"/>
-    <tableColumn id="4" name="Final Product"/>
-    <tableColumn id="6" name="Backbone/locus"/>
-    <tableColumn id="7" name="Constraints"/>
-    <tableColumn id="8" name="Part 1"/>
-    <tableColumn id="9" name="Part 2"/>
-    <tableColumn id="10" name="Part 3"/>
-    <tableColumn id="11" name="Part 4"/>
-    <tableColumn id="12" name="Part 5"/>
-    <tableColumn id="13" name="Part 6"/>
-    <tableColumn id="14" name="Part 7"/>
-    <tableColumn id="15" name="Part 8"/>
-    <tableColumn id="16" name="Part 9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Part/Library Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Design Notes"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Part Description"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Final Product"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Backbone/locus"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Constraints"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Part 1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Part 2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Part 3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Part 4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Part 5"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Part 6"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Part 7"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Part 8"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Part 9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -23774,27 +23747,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A34"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="2" max="2" width="25.26953125" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" customWidth="1"/>
-    <col min="4" max="4" width="6.26953125" customWidth="1"/>
-    <col min="5" max="5" width="38.90625" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" customWidth="1"/>
-    <col min="10" max="11" width="8.453125" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" customWidth="1"/>
-    <col min="13" max="13" width="34.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="11" width="8.42578125" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1">
@@ -23812,7 +23785,7 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -23851,15 +23824,15 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="46.05" customHeight="1">
-      <c r="A5" s="51" t="s">
+    <row r="5" spans="1:13" ht="46" customHeight="1">
+      <c r="A5" s="53" t="s">
         <v>7534</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -23896,7 +23869,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" s="22" customFormat="1" ht="15.75" customHeight="1">
+    <row r="8" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>7506</v>
       </c>
@@ -24022,7 +23995,7 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="41" t="s">
         <v>7512</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -24104,24 +24077,20 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="54" t="s">
-        <v>7555</v>
-      </c>
-      <c r="B15" s="43" t="s">
+      <c r="A15" s="56" t="s">
+        <v>7544</v>
+      </c>
+      <c r="B15" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="54" t="s">
-        <v>7537</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>7536</v>
-      </c>
-      <c r="H15" s="18"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="56" t="s">
+        <v>7545</v>
+      </c>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="57"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18" t="b">
         <v>0</v>
@@ -24131,61 +24100,57 @@
       </c>
       <c r="L15" s="15">
         <f t="shared" ref="L15:L38" si="0">LEN(TRIM(CLEAN(SUBSTITUTE(SUBSTITUTE(M15,CHAR(160)," ")," ",""))))</f>
+        <v>22</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>7546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="56" t="s">
+        <v>7547</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="56" t="s">
+        <v>7548</v>
+      </c>
+      <c r="F16" s="57"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="M15" s="20"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A16" s="54" t="s">
-        <v>7556</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="54" t="s">
-        <v>7538</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>7535</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="22" t="b">
+      <c r="K16" s="21" t="b">
         <v>0</v>
       </c>
       <c r="L16" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="18"/>
+        <v>21</v>
+      </c>
+      <c r="M16" s="41" t="s">
+        <v>7549</v>
+      </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="54" t="s">
-        <v>7557</v>
-      </c>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="56" t="s">
+        <v>7550</v>
+      </c>
+      <c r="B17" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="54" t="s">
-        <v>7539</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="18"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="56" t="s">
+        <v>7551</v>
+      </c>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18" t="b">
         <v>0</v>
@@ -24195,29 +24160,27 @@
       </c>
       <c r="L17" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>7552</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" s="54" t="s">
-        <v>7558</v>
-      </c>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="56" t="s">
+        <v>7553</v>
+      </c>
+      <c r="B18" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="54" t="s">
-        <v>7540</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>7574</v>
-      </c>
-      <c r="H18" s="18"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="56" t="s">
+        <v>7554</v>
+      </c>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18" t="b">
         <v>0</v>
@@ -24227,29 +24190,27 @@
       </c>
       <c r="L18" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="M18" s="41" t="s">
+        <v>7555</v>
+      </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="54" t="s">
-        <v>7559</v>
-      </c>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="56" t="s">
+        <v>7556</v>
+      </c>
+      <c r="B19" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="54" t="s">
-        <v>7541</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>7575</v>
-      </c>
-      <c r="H19" s="18"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="56" t="s">
+        <v>7557</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="57"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18" t="b">
         <v>0</v>
@@ -24259,29 +24220,27 @@
       </c>
       <c r="L19" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="18"/>
+        <v>23</v>
+      </c>
+      <c r="M19" s="41" t="s">
+        <v>7558</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="56" t="s">
+        <v>7559</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="56" t="s">
         <v>7560</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="54" t="s">
-        <v>7542</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>7576</v>
-      </c>
-      <c r="H20" s="18"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="57"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18" t="b">
         <v>0</v>
@@ -24291,29 +24250,31 @@
       </c>
       <c r="L20" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="22"/>
+        <v>24</v>
+      </c>
+      <c r="M20" s="52" t="s">
+        <v>7561</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A21" s="54" t="s">
-        <v>7561</v>
-      </c>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="56" t="s">
+        <v>7537</v>
+      </c>
+      <c r="B21" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="54" t="s">
-        <v>7543</v>
-      </c>
-      <c r="F21" s="18" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="56" t="s">
+        <v>7535</v>
+      </c>
+      <c r="F21" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="18" t="s">
-        <v>7577</v>
-      </c>
-      <c r="H21" s="18"/>
+      <c r="G21" s="57" t="s">
+        <v>7540</v>
+      </c>
+      <c r="H21" s="57"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18" t="b">
         <v>0</v>
@@ -24328,24 +24289,24 @@
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="54" t="s">
-        <v>7562</v>
-      </c>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="56" t="s">
+        <v>7538</v>
+      </c>
+      <c r="B22" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="54" t="s">
-        <v>7542</v>
-      </c>
-      <c r="F22" s="18" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="56" t="s">
+        <v>7536</v>
+      </c>
+      <c r="F22" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>7578</v>
-      </c>
-      <c r="H22" s="18"/>
+      <c r="G22" s="56" t="s">
+        <v>7541</v>
+      </c>
+      <c r="H22" s="57"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18" t="b">
         <v>0</v>
@@ -24360,24 +24321,24 @@
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A23" s="54" t="s">
-        <v>7563</v>
-      </c>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="56" t="s">
+        <v>7539</v>
+      </c>
+      <c r="B23" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="54" t="s">
-        <v>7544</v>
-      </c>
-      <c r="F23" s="18" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="56" t="s">
+        <v>7571</v>
+      </c>
+      <c r="F23" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>7579</v>
-      </c>
-      <c r="H23" s="18"/>
+      <c r="G23" s="56" t="s">
+        <v>7542</v>
+      </c>
+      <c r="H23" s="57"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18" t="b">
         <v>0</v>
@@ -24392,24 +24353,20 @@
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="56" t="s">
+        <v>7563</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="56" t="s">
         <v>7564</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="54" t="s">
-        <v>7545</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>7580</v>
-      </c>
-      <c r="H24" s="18"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="57"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18" t="b">
         <v>0</v>
@@ -24419,29 +24376,27 @@
       </c>
       <c r="L24" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="M24" s="41" t="s">
+        <v>7562</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="56" t="s">
         <v>7565</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="54" t="s">
-        <v>7546</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>7581</v>
-      </c>
-      <c r="H25" s="18"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="56" t="s">
+        <v>7564</v>
+      </c>
+      <c r="F25" s="57"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="57"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18" t="b">
         <v>0</v>
@@ -24451,29 +24406,27 @@
       </c>
       <c r="L25" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="M25" s="41" t="s">
+        <v>7568</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A26" s="54" t="s">
-        <v>7591</v>
-      </c>
-      <c r="B26" s="18" t="s">
+      <c r="A26" s="56" t="s">
+        <v>7566</v>
+      </c>
+      <c r="B26" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="54" t="s">
-        <v>7592</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>7590</v>
-      </c>
-      <c r="H26" s="18"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="56" t="s">
+        <v>7564</v>
+      </c>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18" t="b">
         <v>0</v>
@@ -24483,29 +24436,27 @@
       </c>
       <c r="L26" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="M26" s="41" t="s">
+        <v>7569</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A27" s="54" t="s">
-        <v>7566</v>
-      </c>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="56" t="s">
+        <v>7567</v>
+      </c>
+      <c r="B27" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="54" t="s">
-        <v>7547</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="54" t="s">
-        <v>7582</v>
-      </c>
-      <c r="H27" s="18"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="56" t="s">
+        <v>7564</v>
+      </c>
+      <c r="F27" s="57"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="57"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18" t="b">
         <v>0</v>
@@ -24515,29 +24466,21 @@
       </c>
       <c r="L27" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="M27" s="41" t="s">
+        <v>7570</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A28" s="54" t="s">
-        <v>7567</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="54" t="s">
-        <v>7548</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="54" t="s">
-        <v>7583</v>
-      </c>
-      <c r="H28" s="18"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="57"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18" t="b">
         <v>0</v>
@@ -24552,24 +24495,14 @@
       <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A29" s="54" t="s">
-        <v>7568</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="54" t="s">
-        <v>7549</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="54" t="s">
-        <v>7584</v>
-      </c>
-      <c r="H29" s="18"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="57"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18" t="b">
         <v>0</v>
@@ -24584,24 +24517,14 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="54" t="s">
-        <v>7569</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="54" t="s">
-        <v>7550</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="54" t="s">
-        <v>7585</v>
-      </c>
-      <c r="H30" s="18"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="57"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18" t="b">
         <v>0</v>
@@ -24613,27 +24536,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="25"/>
+      <c r="M30" s="23"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="54" t="s">
-        <v>7570</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="54" t="s">
-        <v>7551</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="54" t="s">
-        <v>7586</v>
-      </c>
-      <c r="H31" s="18"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="57"/>
       <c r="I31" s="18"/>
       <c r="J31" s="18" t="b">
         <v>0</v>
@@ -24645,27 +24558,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M31" s="25"/>
+      <c r="M31" s="23"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A32" s="54" t="s">
-        <v>7571</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="54" t="s">
-        <v>7552</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="54" t="s">
-        <v>7587</v>
-      </c>
-      <c r="H32" s="18"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="57"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18" t="b">
         <v>0</v>
@@ -24680,24 +24583,14 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A33" s="54" t="s">
-        <v>7572</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="54" t="s">
-        <v>7553</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" s="54" t="s">
-        <v>7588</v>
-      </c>
-      <c r="H33" s="18"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="57"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18" t="b">
         <v>0</v>
@@ -24709,27 +24602,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M33" s="26"/>
+      <c r="M33" s="24"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A34" s="54" t="s">
-        <v>7573</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="54" t="s">
-        <v>7554</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" s="54" t="s">
-        <v>7589</v>
-      </c>
-      <c r="H34" s="18"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="57"/>
       <c r="I34" s="18"/>
       <c r="J34" s="18" t="b">
         <v>0</v>
@@ -24741,26 +24624,26 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M34" s="22"/>
+      <c r="M34" s="21"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="61" t="s">
         <v>7501</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55" t="s">
+      <c r="C35" s="61"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="45" t="s">
+      <c r="G35" s="63" t="s">
         <v>7501</v>
       </c>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="41"/>
       <c r="J35" s="18" t="b">
         <v>0</v>
       </c>
@@ -24771,30 +24654,30 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M35" s="57"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
-      <c r="AA35" s="56"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A36" s="43"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
-      <c r="D36" s="21"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
-      <c r="G36" s="21"/>
+      <c r="G36" s="20"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18" t="b">
@@ -24807,16 +24690,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M36" s="22"/>
+      <c r="M36" s="21"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A37" s="43"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
-      <c r="D37" s="21"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
-      <c r="G37" s="21"/>
+      <c r="G37" s="20"/>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
       <c r="J37" s="18" t="b">
@@ -24829,16 +24712,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M37" s="22"/>
+      <c r="M37" s="21"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A38" s="43"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="21"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
-      <c r="G38" s="21"/>
+      <c r="G38" s="20"/>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18" t="b">
@@ -24851,7 +24734,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M38" s="22"/>
+      <c r="M38" s="21"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1"/>
     <row r="40" spans="1:27" ht="15.75" customHeight="1"/>
@@ -25810,43 +25693,43 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>data_source!$B$2:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>F15:F34 F36:F38</xm:sqref>
+          <xm:sqref>F36:F38 F15:F34</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'Organism Terms'!$A$2:$A$34</xm:f>
           </x14:formula1>
           <xm:sqref>H15:I34 H36:I38</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'Ontology Terms'!$B$2:$B$2518</xm:f>
           </x14:formula1>
-          <xm:sqref>B15:B34 B36:B38</xm:sqref>
+          <xm:sqref>B36:B38 B15:B34</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Sequence_alteration_terms!$A$2:$A$19</xm:f>
           </x14:formula1>
-          <xm:sqref>D15:D34 D36:D38</xm:sqref>
+          <xm:sqref>D36:D38 D15:D34</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>'Ontology Terms'!$F$2:$F$3</xm:f>
           </x14:formula1>
           <xm:sqref>J15:K34 J36:K38</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>'[Terminators.xlsx]Ontology Terms'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>J35:K35</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>'[Terminators.xlsx]Organism Terms'!#REF!</xm:f>
           </x14:formula1>
@@ -25859,29 +25742,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="12" width="20.81640625" customWidth="1"/>
-    <col min="13" max="13" width="16.7265625" customWidth="1"/>
-    <col min="14" max="15" width="8.7265625" customWidth="1"/>
-    <col min="16" max="16" width="17.1796875" customWidth="1"/>
-    <col min="17" max="26" width="8.7265625" customWidth="1"/>
+    <col min="7" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" customWidth="1"/>
+    <col min="17" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.6">
+    <row r="1" spans="1:26" ht="16">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -25910,22 +25793,22 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="15.6">
+    <row r="2" spans="1:26" ht="16">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -25939,7 +25822,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:26" s="22" customFormat="1" ht="15.6">
+    <row r="3" spans="1:26" s="21" customFormat="1" ht="16">
       <c r="A3" s="12" t="s">
         <v>7500</v>
       </c>
@@ -25960,9 +25843,9 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
@@ -25976,7 +25859,7 @@
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
     </row>
-    <row r="4" spans="1:26" ht="15.6">
+    <row r="4" spans="1:26" ht="16">
       <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
@@ -25999,9 +25882,9 @@
         <v>51</v>
       </c>
       <c r="J4" s="12"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -26015,7 +25898,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15.6">
+    <row r="5" spans="1:26" ht="16">
       <c r="A5" s="12" t="s">
         <v>58</v>
       </c>
@@ -26038,9 +25921,9 @@
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -26054,7 +25937,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15.6">
+    <row r="6" spans="1:26" ht="16">
       <c r="A6" s="12" t="s">
         <v>61</v>
       </c>
@@ -26073,9 +25956,9 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -26089,7 +25972,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15.6">
+    <row r="7" spans="1:26" ht="16">
       <c r="A7" s="12" t="s">
         <v>63</v>
       </c>
@@ -26116,9 +25999,9 @@
       <c r="J7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="29"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -26132,7 +26015,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15.6">
+    <row r="8" spans="1:26" ht="16">
       <c r="A8" s="12" t="s">
         <v>66</v>
       </c>
@@ -26153,9 +26036,9 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="31"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -26197,7 +26080,7 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" spans="1:26" ht="15.6">
+    <row r="10" spans="1:26" ht="16">
       <c r="A10" s="3"/>
       <c r="C10" s="4" t="s">
         <v>68</v>
@@ -26226,7 +26109,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15.6">
+    <row r="11" spans="1:26" ht="16">
       <c r="A11" s="10" t="s">
         <v>7511</v>
       </c>
@@ -26259,7 +26142,7 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="41" t="s">
         <v>7512</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -26312,37 +26195,37 @@
       <c r="D13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="30" t="s">
         <v>73</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="L13" s="33" t="s">
+      <c r="L13" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="M13" s="33" t="s">
+      <c r="M13" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="N13" s="33" t="s">
+      <c r="N13" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="O13" s="33" t="s">
+      <c r="O13" s="31" t="s">
         <v>82</v>
       </c>
       <c r="P13" s="3"/>
@@ -26356,23 +26239,21 @@
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1">
-      <c r="A14" s="59" t="s">
-        <v>7593</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="b">
+      <c r="A14" s="52" t="s">
+        <v>7543</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="41" t="s">
         <v>7501</v>
       </c>
       <c r="F14" s="18"/>
-      <c r="G14" s="59" t="s">
-        <v>7594</v>
-      </c>
+      <c r="G14" s="52"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="34"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
@@ -26389,9 +26270,9 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="15.6">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
+    <row r="15" spans="1:26" ht="16">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18" t="b">
         <v>0</v>
@@ -26399,10 +26280,10 @@
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-      <c r="H15" s="22"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="21"/>
+      <c r="K15" s="20"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
@@ -26418,17 +26299,17 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
-      <c r="A16" s="22"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="22" t="b">
+      <c r="D16" s="21" t="b">
         <v>0</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="22"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="18"/>
-      <c r="I16" s="34"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
@@ -26446,17 +26327,17 @@
       <c r="X16" s="3"/>
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42" t="b">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="18"/>
-      <c r="I17" s="34"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
@@ -26473,18 +26354,18 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42" t="b">
+    <row r="18" spans="1:25" ht="16">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="34"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
@@ -26501,18 +26382,18 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42" t="b">
+    <row r="19" spans="1:25" ht="16">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
@@ -26529,18 +26410,18 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42" t="b">
+    <row r="20" spans="1:25" ht="16">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
@@ -26567,13 +26448,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'Ontology Terms'!$F$2:$F$3</xm:f>
           </x14:formula1>
           <xm:sqref>D15:D16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>'[Terminators.xlsx]Ontology Terms'!#REF!</xm:f>
           </x14:formula1>
@@ -26586,7 +26467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -26594,28 +26475,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="26" width="10.54296875" customWidth="1"/>
+    <col min="3" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33" t="s">
         <v>86</v>
       </c>
       <c r="K1" s="3"/>
@@ -39240,7 +39121,7 @@
       <c r="B752" s="3" t="s">
         <v>2258</v>
       </c>
-      <c r="C752" s="36" t="s">
+      <c r="C752" s="34" t="s">
         <v>2259</v>
       </c>
       <c r="D752" s="3" t="s">
@@ -66497,7 +66378,7 @@
       <c r="B2371" s="3" t="s">
         <v>6974</v>
       </c>
-      <c r="C2371" s="36" t="s">
+      <c r="C2371" s="34" t="s">
         <v>6975</v>
       </c>
       <c r="D2371" s="3" t="s">
@@ -66514,7 +66395,7 @@
       <c r="B2372" s="3" t="s">
         <v>6977</v>
       </c>
-      <c r="C2372" s="36" t="s">
+      <c r="C2372" s="34" t="s">
         <v>6978</v>
       </c>
       <c r="D2372" s="3" t="s">
@@ -68990,7 +68871,7 @@
       <c r="B2518" s="3" t="s">
         <v>7412</v>
       </c>
-      <c r="C2518" s="36" t="s">
+      <c r="C2518" s="34" t="s">
         <v>7413</v>
       </c>
       <c r="D2518" s="3" t="s">
@@ -69115,17 +68996,17 @@
     <row r="2535" spans="1:11" ht="15" customHeight="1">
       <c r="A2535" s="3"/>
       <c r="B2535" s="3"/>
-      <c r="C2535" s="36"/>
+      <c r="C2535" s="34"/>
       <c r="D2535" s="3"/>
       <c r="K2535" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <hyperlinks>
-    <hyperlink ref="C752" r:id="rId1"/>
-    <hyperlink ref="C2371" r:id="rId2"/>
-    <hyperlink ref="C2372" r:id="rId3"/>
-    <hyperlink ref="C2518" r:id="rId4"/>
+    <hyperlink ref="C752" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C2371" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C2372" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C2518" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -69133,7 +69014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -69146,21 +69027,21 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>7415</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>7416</v>
       </c>
       <c r="I1" s="3"/>
@@ -71129,7 +71010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -71139,16 +71020,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>7444</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>84</v>
       </c>
     </row>
@@ -71156,7 +71037,7 @@
       <c r="A2" s="3" t="s">
         <v>7445</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>7446</v>
       </c>
     </row>
@@ -71172,7 +71053,7 @@
       <c r="A4" s="3" t="s">
         <v>7449</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="36" t="s">
         <v>7450</v>
       </c>
     </row>
@@ -72216,8 +72097,8 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -72225,7 +72106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -72235,38 +72116,38 @@
       <selection activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
-    <col min="7" max="7" width="26.26953125" customWidth="1"/>
-    <col min="8" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>7462</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>7463</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>7464</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="37" t="s">
         <v>7465</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="37" t="s">
         <v>7466</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="37" t="s">
         <v>7467</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="45" t="s">
         <v>7515</v>
       </c>
     </row>
@@ -72277,19 +72158,19 @@
       <c r="B2" s="11" t="s">
         <v>7469</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="38" t="s">
         <v>7470</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="38" t="s">
         <v>7471</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>7472</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="38" t="s">
         <v>7473</v>
       </c>
-      <c r="G2" s="48" t="b">
+      <c r="G2" s="46" t="b">
         <v>1</v>
       </c>
     </row>
@@ -72300,19 +72181,19 @@
       <c r="B3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>7475</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="44" t="s">
         <v>7476</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>7477</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="38" t="s">
         <v>7478</v>
       </c>
-      <c r="G3" s="48" t="b">
+      <c r="G3" s="46" t="b">
         <v>0</v>
       </c>
     </row>
@@ -72323,19 +72204,19 @@
       <c r="B4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>7480</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="38" t="s">
         <v>7481</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>7482</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="38" t="s">
         <v>7483</v>
       </c>
-      <c r="G4" s="48" t="b">
+      <c r="G4" s="46" t="b">
         <v>1</v>
       </c>
     </row>
@@ -72346,19 +72227,19 @@
       <c r="B5" s="11" t="s">
         <v>7485</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="38" t="s">
         <v>7486</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="38" t="s">
         <v>7487</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>7488</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="38" t="s">
         <v>7489</v>
       </c>
-      <c r="G5" s="48" t="b">
+      <c r="G5" s="46" t="b">
         <v>0</v>
       </c>
     </row>
@@ -72369,19 +72250,19 @@
       <c r="B6" s="11" t="s">
         <v>7490</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="38" t="s">
         <v>7491</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="38" t="s">
         <v>7492</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>7493</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="38" t="s">
         <v>7494</v>
       </c>
-      <c r="G6" s="48" t="b">
+      <c r="G6" s="46" t="b">
         <v>1</v>
       </c>
     </row>
@@ -72392,99 +72273,99 @@
       <c r="B7" s="11" t="s">
         <v>7495</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="38" t="s">
         <v>7496</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="38" t="s">
         <v>7497</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>7498</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="38" t="s">
         <v>7499</v>
       </c>
-      <c r="G7" s="48" t="b">
+      <c r="G7" s="46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="42" customFormat="1" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" s="40" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>7516</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>7516</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="46" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="44" t="s">
         <v>7517</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>7518</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="47" t="s">
         <v>7519</v>
       </c>
-      <c r="G8" s="50" t="b">
+      <c r="G8" s="48" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="42" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" s="40" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>7520</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>7521</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="15" t="s">
         <v>7525</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="50" t="b">
+      <c r="F9" s="47"/>
+      <c r="G9" s="48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="42" customFormat="1" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" s="40" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>7523</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>7529</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="46" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="44" t="s">
         <v>7530</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>7526</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="47" t="s">
         <v>7519</v>
       </c>
-      <c r="G10" s="50" t="b">
+      <c r="G10" s="48" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="42" customFormat="1" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" s="40" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="15" t="s">
         <v>7524</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>7528</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="46" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="44" t="s">
         <v>7531</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>7527</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="47" t="s">
         <v>7519</v>
       </c>
-      <c r="G11" s="50" t="b">
+      <c r="G11" s="48" t="b">
         <v>1</v>
       </c>
     </row>
@@ -72494,7 +72375,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="G12" s="48"/>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="3"/>
@@ -72502,7 +72383,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="G13" s="48"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="3"/>
@@ -72510,2992 +72391,2992 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="G14" s="48"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="G15" s="48"/>
+      <c r="G15" s="46"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="G16" s="48"/>
+      <c r="G16" s="46"/>
     </row>
     <row r="17" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G17" s="48"/>
+      <c r="G17" s="46"/>
     </row>
     <row r="18" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G18" s="48"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G19" s="48"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G20" s="48"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G21" s="48"/>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G22" s="48"/>
+      <c r="G22" s="46"/>
     </row>
     <row r="23" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G23" s="48"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G24" s="48"/>
+      <c r="G24" s="46"/>
     </row>
     <row r="25" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G25" s="48"/>
+      <c r="G25" s="46"/>
     </row>
     <row r="26" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G26" s="48"/>
+      <c r="G26" s="46"/>
     </row>
     <row r="27" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G27" s="48"/>
+      <c r="G27" s="46"/>
     </row>
     <row r="28" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G28" s="48"/>
+      <c r="G28" s="46"/>
     </row>
     <row r="29" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G29" s="48"/>
+      <c r="G29" s="46"/>
     </row>
     <row r="30" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G30" s="48"/>
+      <c r="G30" s="46"/>
     </row>
     <row r="31" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G31" s="48"/>
+      <c r="G31" s="46"/>
     </row>
     <row r="32" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G32" s="48"/>
+      <c r="G32" s="46"/>
     </row>
     <row r="33" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G33" s="48"/>
+      <c r="G33" s="46"/>
     </row>
     <row r="34" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G34" s="48"/>
+      <c r="G34" s="46"/>
     </row>
     <row r="35" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G35" s="48"/>
+      <c r="G35" s="46"/>
     </row>
     <row r="36" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G36" s="48"/>
+      <c r="G36" s="46"/>
     </row>
     <row r="37" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G37" s="48"/>
+      <c r="G37" s="46"/>
     </row>
     <row r="38" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G38" s="48"/>
+      <c r="G38" s="46"/>
     </row>
     <row r="39" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G39" s="48"/>
+      <c r="G39" s="46"/>
     </row>
     <row r="40" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G40" s="48"/>
+      <c r="G40" s="46"/>
     </row>
     <row r="41" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G41" s="48"/>
+      <c r="G41" s="46"/>
     </row>
     <row r="42" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G42" s="48"/>
+      <c r="G42" s="46"/>
     </row>
     <row r="43" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G43" s="48"/>
+      <c r="G43" s="46"/>
     </row>
     <row r="44" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G44" s="48"/>
+      <c r="G44" s="46"/>
     </row>
     <row r="45" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G45" s="48"/>
+      <c r="G45" s="46"/>
     </row>
     <row r="46" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G46" s="48"/>
+      <c r="G46" s="46"/>
     </row>
     <row r="47" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G47" s="48"/>
+      <c r="G47" s="46"/>
     </row>
     <row r="48" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G48" s="48"/>
+      <c r="G48" s="46"/>
     </row>
     <row r="49" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G49" s="48"/>
+      <c r="G49" s="46"/>
     </row>
     <row r="50" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G50" s="48"/>
+      <c r="G50" s="46"/>
     </row>
     <row r="51" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G51" s="48"/>
+      <c r="G51" s="46"/>
     </row>
     <row r="52" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G52" s="48"/>
+      <c r="G52" s="46"/>
     </row>
     <row r="53" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G53" s="48"/>
+      <c r="G53" s="46"/>
     </row>
     <row r="54" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G54" s="48"/>
+      <c r="G54" s="46"/>
     </row>
     <row r="55" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G55" s="48"/>
+      <c r="G55" s="46"/>
     </row>
     <row r="56" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G56" s="48"/>
+      <c r="G56" s="46"/>
     </row>
     <row r="57" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G57" s="48"/>
+      <c r="G57" s="46"/>
     </row>
     <row r="58" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G58" s="48"/>
+      <c r="G58" s="46"/>
     </row>
     <row r="59" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G59" s="48"/>
+      <c r="G59" s="46"/>
     </row>
     <row r="60" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G60" s="48"/>
+      <c r="G60" s="46"/>
     </row>
     <row r="61" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G61" s="48"/>
+      <c r="G61" s="46"/>
     </row>
     <row r="62" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G62" s="48"/>
+      <c r="G62" s="46"/>
     </row>
     <row r="63" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G63" s="48"/>
+      <c r="G63" s="46"/>
     </row>
     <row r="64" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G64" s="48"/>
+      <c r="G64" s="46"/>
     </row>
     <row r="65" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G65" s="48"/>
+      <c r="G65" s="46"/>
     </row>
     <row r="66" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G66" s="48"/>
+      <c r="G66" s="46"/>
     </row>
     <row r="67" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G67" s="48"/>
+      <c r="G67" s="46"/>
     </row>
     <row r="68" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G68" s="48"/>
+      <c r="G68" s="46"/>
     </row>
     <row r="69" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G69" s="48"/>
+      <c r="G69" s="46"/>
     </row>
     <row r="70" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G70" s="48"/>
+      <c r="G70" s="46"/>
     </row>
     <row r="71" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G71" s="48"/>
+      <c r="G71" s="46"/>
     </row>
     <row r="72" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G72" s="48"/>
+      <c r="G72" s="46"/>
     </row>
     <row r="73" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G73" s="48"/>
+      <c r="G73" s="46"/>
     </row>
     <row r="74" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G74" s="48"/>
+      <c r="G74" s="46"/>
     </row>
     <row r="75" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G75" s="48"/>
+      <c r="G75" s="46"/>
     </row>
     <row r="76" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G76" s="48"/>
+      <c r="G76" s="46"/>
     </row>
     <row r="77" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G77" s="48"/>
+      <c r="G77" s="46"/>
     </row>
     <row r="78" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G78" s="48"/>
+      <c r="G78" s="46"/>
     </row>
     <row r="79" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G79" s="48"/>
+      <c r="G79" s="46"/>
     </row>
     <row r="80" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G80" s="48"/>
+      <c r="G80" s="46"/>
     </row>
     <row r="81" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G81" s="48"/>
+      <c r="G81" s="46"/>
     </row>
     <row r="82" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G82" s="48"/>
+      <c r="G82" s="46"/>
     </row>
     <row r="83" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G83" s="48"/>
+      <c r="G83" s="46"/>
     </row>
     <row r="84" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G84" s="48"/>
+      <c r="G84" s="46"/>
     </row>
     <row r="85" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G85" s="48"/>
+      <c r="G85" s="46"/>
     </row>
     <row r="86" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G86" s="48"/>
+      <c r="G86" s="46"/>
     </row>
     <row r="87" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G87" s="48"/>
+      <c r="G87" s="46"/>
     </row>
     <row r="88" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G88" s="48"/>
+      <c r="G88" s="46"/>
     </row>
     <row r="89" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G89" s="48"/>
+      <c r="G89" s="46"/>
     </row>
     <row r="90" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G90" s="48"/>
+      <c r="G90" s="46"/>
     </row>
     <row r="91" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G91" s="48"/>
+      <c r="G91" s="46"/>
     </row>
     <row r="92" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G92" s="48"/>
+      <c r="G92" s="46"/>
     </row>
     <row r="93" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G93" s="48"/>
+      <c r="G93" s="46"/>
     </row>
     <row r="94" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G94" s="48"/>
+      <c r="G94" s="46"/>
     </row>
     <row r="95" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G95" s="48"/>
+      <c r="G95" s="46"/>
     </row>
     <row r="96" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G96" s="48"/>
+      <c r="G96" s="46"/>
     </row>
     <row r="97" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G97" s="48"/>
+      <c r="G97" s="46"/>
     </row>
     <row r="98" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G98" s="48"/>
+      <c r="G98" s="46"/>
     </row>
     <row r="99" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G99" s="48"/>
+      <c r="G99" s="46"/>
     </row>
     <row r="100" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G100" s="48"/>
+      <c r="G100" s="46"/>
     </row>
     <row r="101" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G101" s="48"/>
+      <c r="G101" s="46"/>
     </row>
     <row r="102" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G102" s="48"/>
+      <c r="G102" s="46"/>
     </row>
     <row r="103" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G103" s="48"/>
+      <c r="G103" s="46"/>
     </row>
     <row r="104" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G104" s="48"/>
+      <c r="G104" s="46"/>
     </row>
     <row r="105" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G105" s="48"/>
+      <c r="G105" s="46"/>
     </row>
     <row r="106" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G106" s="48"/>
+      <c r="G106" s="46"/>
     </row>
     <row r="107" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G107" s="48"/>
+      <c r="G107" s="46"/>
     </row>
     <row r="108" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G108" s="48"/>
+      <c r="G108" s="46"/>
     </row>
     <row r="109" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G109" s="48"/>
+      <c r="G109" s="46"/>
     </row>
     <row r="110" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G110" s="48"/>
+      <c r="G110" s="46"/>
     </row>
     <row r="111" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G111" s="48"/>
+      <c r="G111" s="46"/>
     </row>
     <row r="112" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G112" s="48"/>
+      <c r="G112" s="46"/>
     </row>
     <row r="113" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G113" s="48"/>
+      <c r="G113" s="46"/>
     </row>
     <row r="114" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G114" s="48"/>
+      <c r="G114" s="46"/>
     </row>
     <row r="115" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G115" s="48"/>
+      <c r="G115" s="46"/>
     </row>
     <row r="116" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G116" s="48"/>
+      <c r="G116" s="46"/>
     </row>
     <row r="117" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G117" s="48"/>
+      <c r="G117" s="46"/>
     </row>
     <row r="118" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G118" s="48"/>
+      <c r="G118" s="46"/>
     </row>
     <row r="119" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G119" s="48"/>
+      <c r="G119" s="46"/>
     </row>
     <row r="120" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G120" s="48"/>
+      <c r="G120" s="46"/>
     </row>
     <row r="121" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G121" s="48"/>
+      <c r="G121" s="46"/>
     </row>
     <row r="122" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G122" s="48"/>
+      <c r="G122" s="46"/>
     </row>
     <row r="123" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G123" s="48"/>
+      <c r="G123" s="46"/>
     </row>
     <row r="124" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G124" s="48"/>
+      <c r="G124" s="46"/>
     </row>
     <row r="125" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G125" s="48"/>
+      <c r="G125" s="46"/>
     </row>
     <row r="126" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G126" s="48"/>
+      <c r="G126" s="46"/>
     </row>
     <row r="127" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G127" s="48"/>
+      <c r="G127" s="46"/>
     </row>
     <row r="128" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G128" s="48"/>
+      <c r="G128" s="46"/>
     </row>
     <row r="129" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G129" s="48"/>
+      <c r="G129" s="46"/>
     </row>
     <row r="130" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G130" s="48"/>
+      <c r="G130" s="46"/>
     </row>
     <row r="131" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G131" s="48"/>
+      <c r="G131" s="46"/>
     </row>
     <row r="132" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G132" s="48"/>
+      <c r="G132" s="46"/>
     </row>
     <row r="133" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G133" s="48"/>
+      <c r="G133" s="46"/>
     </row>
     <row r="134" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G134" s="48"/>
+      <c r="G134" s="46"/>
     </row>
     <row r="135" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G135" s="48"/>
+      <c r="G135" s="46"/>
     </row>
     <row r="136" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G136" s="48"/>
+      <c r="G136" s="46"/>
     </row>
     <row r="137" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G137" s="48"/>
+      <c r="G137" s="46"/>
     </row>
     <row r="138" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G138" s="48"/>
+      <c r="G138" s="46"/>
     </row>
     <row r="139" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G139" s="48"/>
+      <c r="G139" s="46"/>
     </row>
     <row r="140" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G140" s="48"/>
+      <c r="G140" s="46"/>
     </row>
     <row r="141" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G141" s="48"/>
+      <c r="G141" s="46"/>
     </row>
     <row r="142" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G142" s="48"/>
+      <c r="G142" s="46"/>
     </row>
     <row r="143" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G143" s="48"/>
+      <c r="G143" s="46"/>
     </row>
     <row r="144" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G144" s="48"/>
+      <c r="G144" s="46"/>
     </row>
     <row r="145" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G145" s="48"/>
+      <c r="G145" s="46"/>
     </row>
     <row r="146" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G146" s="48"/>
+      <c r="G146" s="46"/>
     </row>
     <row r="147" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G147" s="48"/>
+      <c r="G147" s="46"/>
     </row>
     <row r="148" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G148" s="48"/>
+      <c r="G148" s="46"/>
     </row>
     <row r="149" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G149" s="48"/>
+      <c r="G149" s="46"/>
     </row>
     <row r="150" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G150" s="48"/>
+      <c r="G150" s="46"/>
     </row>
     <row r="151" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G151" s="48"/>
+      <c r="G151" s="46"/>
     </row>
     <row r="152" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G152" s="48"/>
+      <c r="G152" s="46"/>
     </row>
     <row r="153" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G153" s="48"/>
+      <c r="G153" s="46"/>
     </row>
     <row r="154" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G154" s="48"/>
+      <c r="G154" s="46"/>
     </row>
     <row r="155" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G155" s="48"/>
+      <c r="G155" s="46"/>
     </row>
     <row r="156" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G156" s="48"/>
+      <c r="G156" s="46"/>
     </row>
     <row r="157" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G157" s="48"/>
+      <c r="G157" s="46"/>
     </row>
     <row r="158" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G158" s="48"/>
+      <c r="G158" s="46"/>
     </row>
     <row r="159" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G159" s="48"/>
+      <c r="G159" s="46"/>
     </row>
     <row r="160" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G160" s="48"/>
+      <c r="G160" s="46"/>
     </row>
     <row r="161" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G161" s="48"/>
+      <c r="G161" s="46"/>
     </row>
     <row r="162" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G162" s="48"/>
+      <c r="G162" s="46"/>
     </row>
     <row r="163" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G163" s="48"/>
+      <c r="G163" s="46"/>
     </row>
     <row r="164" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G164" s="48"/>
+      <c r="G164" s="46"/>
     </row>
     <row r="165" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G165" s="48"/>
+      <c r="G165" s="46"/>
     </row>
     <row r="166" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G166" s="48"/>
+      <c r="G166" s="46"/>
     </row>
     <row r="167" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G167" s="48"/>
+      <c r="G167" s="46"/>
     </row>
     <row r="168" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G168" s="48"/>
+      <c r="G168" s="46"/>
     </row>
     <row r="169" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G169" s="48"/>
+      <c r="G169" s="46"/>
     </row>
     <row r="170" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G170" s="48"/>
+      <c r="G170" s="46"/>
     </row>
     <row r="171" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G171" s="48"/>
+      <c r="G171" s="46"/>
     </row>
     <row r="172" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G172" s="48"/>
+      <c r="G172" s="46"/>
     </row>
     <row r="173" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G173" s="48"/>
+      <c r="G173" s="46"/>
     </row>
     <row r="174" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G174" s="48"/>
+      <c r="G174" s="46"/>
     </row>
     <row r="175" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G175" s="48"/>
+      <c r="G175" s="46"/>
     </row>
     <row r="176" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G176" s="48"/>
+      <c r="G176" s="46"/>
     </row>
     <row r="177" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G177" s="48"/>
+      <c r="G177" s="46"/>
     </row>
     <row r="178" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G178" s="48"/>
+      <c r="G178" s="46"/>
     </row>
     <row r="179" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G179" s="48"/>
+      <c r="G179" s="46"/>
     </row>
     <row r="180" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G180" s="48"/>
+      <c r="G180" s="46"/>
     </row>
     <row r="181" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G181" s="48"/>
+      <c r="G181" s="46"/>
     </row>
     <row r="182" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G182" s="48"/>
+      <c r="G182" s="46"/>
     </row>
     <row r="183" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G183" s="48"/>
+      <c r="G183" s="46"/>
     </row>
     <row r="184" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G184" s="48"/>
+      <c r="G184" s="46"/>
     </row>
     <row r="185" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G185" s="48"/>
+      <c r="G185" s="46"/>
     </row>
     <row r="186" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G186" s="48"/>
+      <c r="G186" s="46"/>
     </row>
     <row r="187" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G187" s="48"/>
+      <c r="G187" s="46"/>
     </row>
     <row r="188" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G188" s="48"/>
+      <c r="G188" s="46"/>
     </row>
     <row r="189" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G189" s="48"/>
+      <c r="G189" s="46"/>
     </row>
     <row r="190" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G190" s="48"/>
+      <c r="G190" s="46"/>
     </row>
     <row r="191" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G191" s="48"/>
+      <c r="G191" s="46"/>
     </row>
     <row r="192" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G192" s="48"/>
+      <c r="G192" s="46"/>
     </row>
     <row r="193" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G193" s="48"/>
+      <c r="G193" s="46"/>
     </row>
     <row r="194" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G194" s="48"/>
+      <c r="G194" s="46"/>
     </row>
     <row r="195" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G195" s="48"/>
+      <c r="G195" s="46"/>
     </row>
     <row r="196" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G196" s="48"/>
+      <c r="G196" s="46"/>
     </row>
     <row r="197" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G197" s="48"/>
+      <c r="G197" s="46"/>
     </row>
     <row r="198" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G198" s="48"/>
+      <c r="G198" s="46"/>
     </row>
     <row r="199" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G199" s="48"/>
+      <c r="G199" s="46"/>
     </row>
     <row r="200" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G200" s="48"/>
+      <c r="G200" s="46"/>
     </row>
     <row r="201" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G201" s="48"/>
+      <c r="G201" s="46"/>
     </row>
     <row r="202" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G202" s="48"/>
+      <c r="G202" s="46"/>
     </row>
     <row r="203" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G203" s="48"/>
+      <c r="G203" s="46"/>
     </row>
     <row r="204" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G204" s="48"/>
+      <c r="G204" s="46"/>
     </row>
     <row r="205" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G205" s="48"/>
+      <c r="G205" s="46"/>
     </row>
     <row r="206" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G206" s="48"/>
+      <c r="G206" s="46"/>
     </row>
     <row r="207" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G207" s="48"/>
+      <c r="G207" s="46"/>
     </row>
     <row r="208" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G208" s="48"/>
+      <c r="G208" s="46"/>
     </row>
     <row r="209" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G209" s="48"/>
+      <c r="G209" s="46"/>
     </row>
     <row r="210" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G210" s="48"/>
+      <c r="G210" s="46"/>
     </row>
     <row r="211" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G211" s="48"/>
+      <c r="G211" s="46"/>
     </row>
     <row r="212" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G212" s="48"/>
+      <c r="G212" s="46"/>
     </row>
     <row r="213" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G213" s="48"/>
+      <c r="G213" s="46"/>
     </row>
     <row r="214" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G214" s="48"/>
+      <c r="G214" s="46"/>
     </row>
     <row r="215" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G215" s="48"/>
+      <c r="G215" s="46"/>
     </row>
     <row r="216" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G216" s="48"/>
+      <c r="G216" s="46"/>
     </row>
     <row r="217" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G217" s="48"/>
+      <c r="G217" s="46"/>
     </row>
     <row r="218" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G218" s="48"/>
+      <c r="G218" s="46"/>
     </row>
     <row r="219" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G219" s="48"/>
+      <c r="G219" s="46"/>
     </row>
     <row r="220" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G220" s="48"/>
+      <c r="G220" s="46"/>
     </row>
     <row r="221" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G221" s="48"/>
+      <c r="G221" s="46"/>
     </row>
     <row r="222" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G222" s="48"/>
+      <c r="G222" s="46"/>
     </row>
     <row r="223" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G223" s="48"/>
+      <c r="G223" s="46"/>
     </row>
     <row r="224" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G224" s="48"/>
+      <c r="G224" s="46"/>
     </row>
     <row r="225" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G225" s="48"/>
+      <c r="G225" s="46"/>
     </row>
     <row r="226" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G226" s="48"/>
+      <c r="G226" s="46"/>
     </row>
     <row r="227" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G227" s="48"/>
+      <c r="G227" s="46"/>
     </row>
     <row r="228" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G228" s="48"/>
+      <c r="G228" s="46"/>
     </row>
     <row r="229" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G229" s="48"/>
+      <c r="G229" s="46"/>
     </row>
     <row r="230" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G230" s="48"/>
+      <c r="G230" s="46"/>
     </row>
     <row r="231" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G231" s="48"/>
+      <c r="G231" s="46"/>
     </row>
     <row r="232" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G232" s="48"/>
+      <c r="G232" s="46"/>
     </row>
     <row r="233" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G233" s="48"/>
+      <c r="G233" s="46"/>
     </row>
     <row r="234" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G234" s="48"/>
+      <c r="G234" s="46"/>
     </row>
     <row r="235" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G235" s="48"/>
+      <c r="G235" s="46"/>
     </row>
     <row r="236" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G236" s="48"/>
+      <c r="G236" s="46"/>
     </row>
     <row r="237" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G237" s="48"/>
+      <c r="G237" s="46"/>
     </row>
     <row r="238" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G238" s="48"/>
+      <c r="G238" s="46"/>
     </row>
     <row r="239" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G239" s="48"/>
+      <c r="G239" s="46"/>
     </row>
     <row r="240" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G240" s="48"/>
+      <c r="G240" s="46"/>
     </row>
     <row r="241" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G241" s="48"/>
+      <c r="G241" s="46"/>
     </row>
     <row r="242" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G242" s="48"/>
+      <c r="G242" s="46"/>
     </row>
     <row r="243" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G243" s="48"/>
+      <c r="G243" s="46"/>
     </row>
     <row r="244" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G244" s="48"/>
+      <c r="G244" s="46"/>
     </row>
     <row r="245" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G245" s="48"/>
+      <c r="G245" s="46"/>
     </row>
     <row r="246" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G246" s="48"/>
+      <c r="G246" s="46"/>
     </row>
     <row r="247" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G247" s="48"/>
+      <c r="G247" s="46"/>
     </row>
     <row r="248" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G248" s="48"/>
+      <c r="G248" s="46"/>
     </row>
     <row r="249" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G249" s="48"/>
+      <c r="G249" s="46"/>
     </row>
     <row r="250" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G250" s="48"/>
+      <c r="G250" s="46"/>
     </row>
     <row r="251" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G251" s="48"/>
+      <c r="G251" s="46"/>
     </row>
     <row r="252" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G252" s="48"/>
+      <c r="G252" s="46"/>
     </row>
     <row r="253" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G253" s="48"/>
+      <c r="G253" s="46"/>
     </row>
     <row r="254" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G254" s="48"/>
+      <c r="G254" s="46"/>
     </row>
     <row r="255" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G255" s="48"/>
+      <c r="G255" s="46"/>
     </row>
     <row r="256" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G256" s="48"/>
+      <c r="G256" s="46"/>
     </row>
     <row r="257" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G257" s="48"/>
+      <c r="G257" s="46"/>
     </row>
     <row r="258" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G258" s="48"/>
+      <c r="G258" s="46"/>
     </row>
     <row r="259" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G259" s="48"/>
+      <c r="G259" s="46"/>
     </row>
     <row r="260" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G260" s="48"/>
+      <c r="G260" s="46"/>
     </row>
     <row r="261" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G261" s="48"/>
+      <c r="G261" s="46"/>
     </row>
     <row r="262" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G262" s="48"/>
+      <c r="G262" s="46"/>
     </row>
     <row r="263" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G263" s="48"/>
+      <c r="G263" s="46"/>
     </row>
     <row r="264" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G264" s="48"/>
+      <c r="G264" s="46"/>
     </row>
     <row r="265" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G265" s="48"/>
+      <c r="G265" s="46"/>
     </row>
     <row r="266" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G266" s="48"/>
+      <c r="G266" s="46"/>
     </row>
     <row r="267" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G267" s="48"/>
+      <c r="G267" s="46"/>
     </row>
     <row r="268" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G268" s="48"/>
+      <c r="G268" s="46"/>
     </row>
     <row r="269" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G269" s="48"/>
+      <c r="G269" s="46"/>
     </row>
     <row r="270" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G270" s="48"/>
+      <c r="G270" s="46"/>
     </row>
     <row r="271" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G271" s="48"/>
+      <c r="G271" s="46"/>
     </row>
     <row r="272" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G272" s="48"/>
+      <c r="G272" s="46"/>
     </row>
     <row r="273" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G273" s="48"/>
+      <c r="G273" s="46"/>
     </row>
     <row r="274" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G274" s="48"/>
+      <c r="G274" s="46"/>
     </row>
     <row r="275" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G275" s="48"/>
+      <c r="G275" s="46"/>
     </row>
     <row r="276" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G276" s="48"/>
+      <c r="G276" s="46"/>
     </row>
     <row r="277" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G277" s="48"/>
+      <c r="G277" s="46"/>
     </row>
     <row r="278" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G278" s="48"/>
+      <c r="G278" s="46"/>
     </row>
     <row r="279" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G279" s="48"/>
+      <c r="G279" s="46"/>
     </row>
     <row r="280" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G280" s="48"/>
+      <c r="G280" s="46"/>
     </row>
     <row r="281" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G281" s="48"/>
+      <c r="G281" s="46"/>
     </row>
     <row r="282" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G282" s="48"/>
+      <c r="G282" s="46"/>
     </row>
     <row r="283" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G283" s="48"/>
+      <c r="G283" s="46"/>
     </row>
     <row r="284" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G284" s="48"/>
+      <c r="G284" s="46"/>
     </row>
     <row r="285" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G285" s="48"/>
+      <c r="G285" s="46"/>
     </row>
     <row r="286" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G286" s="48"/>
+      <c r="G286" s="46"/>
     </row>
     <row r="287" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G287" s="48"/>
+      <c r="G287" s="46"/>
     </row>
     <row r="288" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G288" s="48"/>
+      <c r="G288" s="46"/>
     </row>
     <row r="289" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G289" s="48"/>
+      <c r="G289" s="46"/>
     </row>
     <row r="290" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G290" s="48"/>
+      <c r="G290" s="46"/>
     </row>
     <row r="291" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G291" s="48"/>
+      <c r="G291" s="46"/>
     </row>
     <row r="292" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G292" s="48"/>
+      <c r="G292" s="46"/>
     </row>
     <row r="293" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G293" s="48"/>
+      <c r="G293" s="46"/>
     </row>
     <row r="294" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G294" s="48"/>
+      <c r="G294" s="46"/>
     </row>
     <row r="295" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G295" s="48"/>
+      <c r="G295" s="46"/>
     </row>
     <row r="296" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G296" s="48"/>
+      <c r="G296" s="46"/>
     </row>
     <row r="297" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G297" s="48"/>
+      <c r="G297" s="46"/>
     </row>
     <row r="298" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G298" s="48"/>
+      <c r="G298" s="46"/>
     </row>
     <row r="299" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G299" s="48"/>
+      <c r="G299" s="46"/>
     </row>
     <row r="300" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G300" s="48"/>
+      <c r="G300" s="46"/>
     </row>
     <row r="301" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G301" s="48"/>
+      <c r="G301" s="46"/>
     </row>
     <row r="302" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G302" s="48"/>
+      <c r="G302" s="46"/>
     </row>
     <row r="303" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G303" s="48"/>
+      <c r="G303" s="46"/>
     </row>
     <row r="304" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G304" s="48"/>
+      <c r="G304" s="46"/>
     </row>
     <row r="305" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G305" s="48"/>
+      <c r="G305" s="46"/>
     </row>
     <row r="306" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G306" s="48"/>
+      <c r="G306" s="46"/>
     </row>
     <row r="307" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G307" s="48"/>
+      <c r="G307" s="46"/>
     </row>
     <row r="308" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G308" s="48"/>
+      <c r="G308" s="46"/>
     </row>
     <row r="309" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G309" s="48"/>
+      <c r="G309" s="46"/>
     </row>
     <row r="310" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G310" s="48"/>
+      <c r="G310" s="46"/>
     </row>
     <row r="311" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G311" s="48"/>
+      <c r="G311" s="46"/>
     </row>
     <row r="312" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G312" s="48"/>
+      <c r="G312" s="46"/>
     </row>
     <row r="313" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G313" s="48"/>
+      <c r="G313" s="46"/>
     </row>
     <row r="314" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G314" s="48"/>
+      <c r="G314" s="46"/>
     </row>
     <row r="315" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G315" s="48"/>
+      <c r="G315" s="46"/>
     </row>
     <row r="316" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G316" s="48"/>
+      <c r="G316" s="46"/>
     </row>
     <row r="317" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G317" s="48"/>
+      <c r="G317" s="46"/>
     </row>
     <row r="318" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G318" s="48"/>
+      <c r="G318" s="46"/>
     </row>
     <row r="319" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G319" s="48"/>
+      <c r="G319" s="46"/>
     </row>
     <row r="320" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G320" s="48"/>
+      <c r="G320" s="46"/>
     </row>
     <row r="321" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G321" s="48"/>
+      <c r="G321" s="46"/>
     </row>
     <row r="322" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G322" s="48"/>
+      <c r="G322" s="46"/>
     </row>
     <row r="323" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G323" s="48"/>
+      <c r="G323" s="46"/>
     </row>
     <row r="324" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G324" s="48"/>
+      <c r="G324" s="46"/>
     </row>
     <row r="325" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G325" s="48"/>
+      <c r="G325" s="46"/>
     </row>
     <row r="326" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G326" s="48"/>
+      <c r="G326" s="46"/>
     </row>
     <row r="327" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G327" s="48"/>
+      <c r="G327" s="46"/>
     </row>
     <row r="328" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G328" s="48"/>
+      <c r="G328" s="46"/>
     </row>
     <row r="329" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G329" s="48"/>
+      <c r="G329" s="46"/>
     </row>
     <row r="330" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G330" s="48"/>
+      <c r="G330" s="46"/>
     </row>
     <row r="331" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G331" s="48"/>
+      <c r="G331" s="46"/>
     </row>
     <row r="332" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G332" s="48"/>
+      <c r="G332" s="46"/>
     </row>
     <row r="333" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G333" s="48"/>
+      <c r="G333" s="46"/>
     </row>
     <row r="334" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G334" s="48"/>
+      <c r="G334" s="46"/>
     </row>
     <row r="335" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G335" s="48"/>
+      <c r="G335" s="46"/>
     </row>
     <row r="336" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G336" s="48"/>
+      <c r="G336" s="46"/>
     </row>
     <row r="337" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G337" s="48"/>
+      <c r="G337" s="46"/>
     </row>
     <row r="338" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G338" s="48"/>
+      <c r="G338" s="46"/>
     </row>
     <row r="339" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G339" s="48"/>
+      <c r="G339" s="46"/>
     </row>
     <row r="340" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G340" s="48"/>
+      <c r="G340" s="46"/>
     </row>
     <row r="341" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G341" s="48"/>
+      <c r="G341" s="46"/>
     </row>
     <row r="342" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G342" s="48"/>
+      <c r="G342" s="46"/>
     </row>
     <row r="343" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G343" s="48"/>
+      <c r="G343" s="46"/>
     </row>
     <row r="344" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G344" s="48"/>
+      <c r="G344" s="46"/>
     </row>
     <row r="345" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G345" s="48"/>
+      <c r="G345" s="46"/>
     </row>
     <row r="346" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G346" s="48"/>
+      <c r="G346" s="46"/>
     </row>
     <row r="347" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G347" s="48"/>
+      <c r="G347" s="46"/>
     </row>
     <row r="348" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G348" s="48"/>
+      <c r="G348" s="46"/>
     </row>
     <row r="349" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G349" s="48"/>
+      <c r="G349" s="46"/>
     </row>
     <row r="350" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G350" s="48"/>
+      <c r="G350" s="46"/>
     </row>
     <row r="351" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G351" s="48"/>
+      <c r="G351" s="46"/>
     </row>
     <row r="352" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G352" s="48"/>
+      <c r="G352" s="46"/>
     </row>
     <row r="353" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G353" s="48"/>
+      <c r="G353" s="46"/>
     </row>
     <row r="354" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G354" s="48"/>
+      <c r="G354" s="46"/>
     </row>
     <row r="355" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G355" s="48"/>
+      <c r="G355" s="46"/>
     </row>
     <row r="356" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G356" s="48"/>
+      <c r="G356" s="46"/>
     </row>
     <row r="357" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G357" s="48"/>
+      <c r="G357" s="46"/>
     </row>
     <row r="358" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G358" s="48"/>
+      <c r="G358" s="46"/>
     </row>
     <row r="359" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G359" s="48"/>
+      <c r="G359" s="46"/>
     </row>
     <row r="360" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G360" s="48"/>
+      <c r="G360" s="46"/>
     </row>
     <row r="361" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G361" s="48"/>
+      <c r="G361" s="46"/>
     </row>
     <row r="362" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G362" s="48"/>
+      <c r="G362" s="46"/>
     </row>
     <row r="363" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G363" s="48"/>
+      <c r="G363" s="46"/>
     </row>
     <row r="364" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G364" s="48"/>
+      <c r="G364" s="46"/>
     </row>
     <row r="365" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G365" s="48"/>
+      <c r="G365" s="46"/>
     </row>
     <row r="366" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G366" s="48"/>
+      <c r="G366" s="46"/>
     </row>
     <row r="367" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G367" s="48"/>
+      <c r="G367" s="46"/>
     </row>
     <row r="368" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G368" s="48"/>
+      <c r="G368" s="46"/>
     </row>
     <row r="369" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G369" s="48"/>
+      <c r="G369" s="46"/>
     </row>
     <row r="370" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G370" s="48"/>
+      <c r="G370" s="46"/>
     </row>
     <row r="371" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G371" s="48"/>
+      <c r="G371" s="46"/>
     </row>
     <row r="372" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G372" s="48"/>
+      <c r="G372" s="46"/>
     </row>
     <row r="373" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G373" s="48"/>
+      <c r="G373" s="46"/>
     </row>
     <row r="374" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G374" s="48"/>
+      <c r="G374" s="46"/>
     </row>
     <row r="375" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G375" s="48"/>
+      <c r="G375" s="46"/>
     </row>
     <row r="376" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G376" s="48"/>
+      <c r="G376" s="46"/>
     </row>
     <row r="377" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G377" s="48"/>
+      <c r="G377" s="46"/>
     </row>
     <row r="378" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G378" s="48"/>
+      <c r="G378" s="46"/>
     </row>
     <row r="379" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G379" s="48"/>
+      <c r="G379" s="46"/>
     </row>
     <row r="380" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G380" s="48"/>
+      <c r="G380" s="46"/>
     </row>
     <row r="381" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G381" s="48"/>
+      <c r="G381" s="46"/>
     </row>
     <row r="382" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G382" s="48"/>
+      <c r="G382" s="46"/>
     </row>
     <row r="383" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G383" s="48"/>
+      <c r="G383" s="46"/>
     </row>
     <row r="384" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G384" s="48"/>
+      <c r="G384" s="46"/>
     </row>
     <row r="385" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G385" s="48"/>
+      <c r="G385" s="46"/>
     </row>
     <row r="386" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G386" s="48"/>
+      <c r="G386" s="46"/>
     </row>
     <row r="387" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G387" s="48"/>
+      <c r="G387" s="46"/>
     </row>
     <row r="388" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G388" s="48"/>
+      <c r="G388" s="46"/>
     </row>
     <row r="389" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G389" s="48"/>
+      <c r="G389" s="46"/>
     </row>
     <row r="390" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G390" s="48"/>
+      <c r="G390" s="46"/>
     </row>
     <row r="391" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G391" s="48"/>
+      <c r="G391" s="46"/>
     </row>
     <row r="392" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G392" s="48"/>
+      <c r="G392" s="46"/>
     </row>
     <row r="393" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G393" s="48"/>
+      <c r="G393" s="46"/>
     </row>
     <row r="394" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G394" s="48"/>
+      <c r="G394" s="46"/>
     </row>
     <row r="395" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G395" s="48"/>
+      <c r="G395" s="46"/>
     </row>
     <row r="396" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G396" s="48"/>
+      <c r="G396" s="46"/>
     </row>
     <row r="397" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G397" s="48"/>
+      <c r="G397" s="46"/>
     </row>
     <row r="398" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G398" s="48"/>
+      <c r="G398" s="46"/>
     </row>
     <row r="399" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G399" s="48"/>
+      <c r="G399" s="46"/>
     </row>
     <row r="400" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G400" s="48"/>
+      <c r="G400" s="46"/>
     </row>
     <row r="401" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G401" s="48"/>
+      <c r="G401" s="46"/>
     </row>
     <row r="402" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G402" s="48"/>
+      <c r="G402" s="46"/>
     </row>
     <row r="403" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G403" s="48"/>
+      <c r="G403" s="46"/>
     </row>
     <row r="404" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G404" s="48"/>
+      <c r="G404" s="46"/>
     </row>
     <row r="405" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G405" s="48"/>
+      <c r="G405" s="46"/>
     </row>
     <row r="406" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G406" s="48"/>
+      <c r="G406" s="46"/>
     </row>
     <row r="407" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G407" s="48"/>
+      <c r="G407" s="46"/>
     </row>
     <row r="408" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G408" s="48"/>
+      <c r="G408" s="46"/>
     </row>
     <row r="409" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G409" s="48"/>
+      <c r="G409" s="46"/>
     </row>
     <row r="410" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G410" s="48"/>
+      <c r="G410" s="46"/>
     </row>
     <row r="411" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G411" s="48"/>
+      <c r="G411" s="46"/>
     </row>
     <row r="412" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G412" s="48"/>
+      <c r="G412" s="46"/>
     </row>
     <row r="413" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G413" s="48"/>
+      <c r="G413" s="46"/>
     </row>
     <row r="414" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G414" s="48"/>
+      <c r="G414" s="46"/>
     </row>
     <row r="415" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G415" s="48"/>
+      <c r="G415" s="46"/>
     </row>
     <row r="416" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G416" s="48"/>
+      <c r="G416" s="46"/>
     </row>
     <row r="417" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G417" s="48"/>
+      <c r="G417" s="46"/>
     </row>
     <row r="418" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G418" s="48"/>
+      <c r="G418" s="46"/>
     </row>
     <row r="419" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G419" s="48"/>
+      <c r="G419" s="46"/>
     </row>
     <row r="420" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G420" s="48"/>
+      <c r="G420" s="46"/>
     </row>
     <row r="421" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G421" s="48"/>
+      <c r="G421" s="46"/>
     </row>
     <row r="422" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G422" s="48"/>
+      <c r="G422" s="46"/>
     </row>
     <row r="423" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G423" s="48"/>
+      <c r="G423" s="46"/>
     </row>
     <row r="424" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G424" s="48"/>
+      <c r="G424" s="46"/>
     </row>
     <row r="425" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G425" s="48"/>
+      <c r="G425" s="46"/>
     </row>
     <row r="426" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G426" s="48"/>
+      <c r="G426" s="46"/>
     </row>
     <row r="427" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G427" s="48"/>
+      <c r="G427" s="46"/>
     </row>
     <row r="428" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G428" s="48"/>
+      <c r="G428" s="46"/>
     </row>
     <row r="429" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G429" s="48"/>
+      <c r="G429" s="46"/>
     </row>
     <row r="430" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G430" s="48"/>
+      <c r="G430" s="46"/>
     </row>
     <row r="431" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G431" s="48"/>
+      <c r="G431" s="46"/>
     </row>
     <row r="432" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G432" s="48"/>
+      <c r="G432" s="46"/>
     </row>
     <row r="433" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G433" s="48"/>
+      <c r="G433" s="46"/>
     </row>
     <row r="434" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G434" s="48"/>
+      <c r="G434" s="46"/>
     </row>
     <row r="435" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G435" s="48"/>
+      <c r="G435" s="46"/>
     </row>
     <row r="436" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G436" s="48"/>
+      <c r="G436" s="46"/>
     </row>
     <row r="437" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G437" s="48"/>
+      <c r="G437" s="46"/>
     </row>
     <row r="438" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G438" s="48"/>
+      <c r="G438" s="46"/>
     </row>
     <row r="439" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G439" s="48"/>
+      <c r="G439" s="46"/>
     </row>
     <row r="440" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G440" s="48"/>
+      <c r="G440" s="46"/>
     </row>
     <row r="441" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G441" s="48"/>
+      <c r="G441" s="46"/>
     </row>
     <row r="442" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G442" s="48"/>
+      <c r="G442" s="46"/>
     </row>
     <row r="443" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G443" s="48"/>
+      <c r="G443" s="46"/>
     </row>
     <row r="444" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G444" s="48"/>
+      <c r="G444" s="46"/>
     </row>
     <row r="445" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G445" s="48"/>
+      <c r="G445" s="46"/>
     </row>
     <row r="446" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G446" s="48"/>
+      <c r="G446" s="46"/>
     </row>
     <row r="447" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G447" s="48"/>
+      <c r="G447" s="46"/>
     </row>
     <row r="448" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G448" s="48"/>
+      <c r="G448" s="46"/>
     </row>
     <row r="449" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G449" s="48"/>
+      <c r="G449" s="46"/>
     </row>
     <row r="450" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G450" s="48"/>
+      <c r="G450" s="46"/>
     </row>
     <row r="451" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G451" s="48"/>
+      <c r="G451" s="46"/>
     </row>
     <row r="452" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G452" s="48"/>
+      <c r="G452" s="46"/>
     </row>
     <row r="453" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G453" s="48"/>
+      <c r="G453" s="46"/>
     </row>
     <row r="454" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G454" s="48"/>
+      <c r="G454" s="46"/>
     </row>
     <row r="455" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G455" s="48"/>
+      <c r="G455" s="46"/>
     </row>
     <row r="456" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G456" s="48"/>
+      <c r="G456" s="46"/>
     </row>
     <row r="457" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G457" s="48"/>
+      <c r="G457" s="46"/>
     </row>
     <row r="458" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G458" s="48"/>
+      <c r="G458" s="46"/>
     </row>
     <row r="459" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G459" s="48"/>
+      <c r="G459" s="46"/>
     </row>
     <row r="460" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G460" s="48"/>
+      <c r="G460" s="46"/>
     </row>
     <row r="461" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G461" s="48"/>
+      <c r="G461" s="46"/>
     </row>
     <row r="462" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G462" s="48"/>
+      <c r="G462" s="46"/>
     </row>
     <row r="463" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G463" s="48"/>
+      <c r="G463" s="46"/>
     </row>
     <row r="464" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G464" s="48"/>
+      <c r="G464" s="46"/>
     </row>
     <row r="465" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G465" s="48"/>
+      <c r="G465" s="46"/>
     </row>
     <row r="466" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G466" s="48"/>
+      <c r="G466" s="46"/>
     </row>
     <row r="467" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G467" s="48"/>
+      <c r="G467" s="46"/>
     </row>
     <row r="468" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G468" s="48"/>
+      <c r="G468" s="46"/>
     </row>
     <row r="469" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G469" s="48"/>
+      <c r="G469" s="46"/>
     </row>
     <row r="470" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G470" s="48"/>
+      <c r="G470" s="46"/>
     </row>
     <row r="471" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G471" s="48"/>
+      <c r="G471" s="46"/>
     </row>
     <row r="472" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G472" s="48"/>
+      <c r="G472" s="46"/>
     </row>
     <row r="473" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G473" s="48"/>
+      <c r="G473" s="46"/>
     </row>
     <row r="474" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G474" s="48"/>
+      <c r="G474" s="46"/>
     </row>
     <row r="475" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G475" s="48"/>
+      <c r="G475" s="46"/>
     </row>
     <row r="476" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G476" s="48"/>
+      <c r="G476" s="46"/>
     </row>
     <row r="477" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G477" s="48"/>
+      <c r="G477" s="46"/>
     </row>
     <row r="478" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G478" s="48"/>
+      <c r="G478" s="46"/>
     </row>
     <row r="479" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G479" s="48"/>
+      <c r="G479" s="46"/>
     </row>
     <row r="480" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G480" s="48"/>
+      <c r="G480" s="46"/>
     </row>
     <row r="481" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G481" s="48"/>
+      <c r="G481" s="46"/>
     </row>
     <row r="482" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G482" s="48"/>
+      <c r="G482" s="46"/>
     </row>
     <row r="483" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G483" s="48"/>
+      <c r="G483" s="46"/>
     </row>
     <row r="484" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G484" s="48"/>
+      <c r="G484" s="46"/>
     </row>
     <row r="485" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G485" s="48"/>
+      <c r="G485" s="46"/>
     </row>
     <row r="486" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G486" s="48"/>
+      <c r="G486" s="46"/>
     </row>
     <row r="487" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G487" s="48"/>
+      <c r="G487" s="46"/>
     </row>
     <row r="488" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G488" s="48"/>
+      <c r="G488" s="46"/>
     </row>
     <row r="489" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G489" s="48"/>
+      <c r="G489" s="46"/>
     </row>
     <row r="490" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G490" s="48"/>
+      <c r="G490" s="46"/>
     </row>
     <row r="491" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G491" s="48"/>
+      <c r="G491" s="46"/>
     </row>
     <row r="492" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G492" s="48"/>
+      <c r="G492" s="46"/>
     </row>
     <row r="493" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G493" s="48"/>
+      <c r="G493" s="46"/>
     </row>
     <row r="494" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G494" s="48"/>
+      <c r="G494" s="46"/>
     </row>
     <row r="495" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G495" s="48"/>
+      <c r="G495" s="46"/>
     </row>
     <row r="496" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G496" s="48"/>
+      <c r="G496" s="46"/>
     </row>
     <row r="497" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G497" s="48"/>
+      <c r="G497" s="46"/>
     </row>
     <row r="498" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G498" s="48"/>
+      <c r="G498" s="46"/>
     </row>
     <row r="499" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G499" s="48"/>
+      <c r="G499" s="46"/>
     </row>
     <row r="500" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G500" s="48"/>
+      <c r="G500" s="46"/>
     </row>
     <row r="501" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G501" s="48"/>
+      <c r="G501" s="46"/>
     </row>
     <row r="502" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G502" s="48"/>
+      <c r="G502" s="46"/>
     </row>
     <row r="503" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G503" s="48"/>
+      <c r="G503" s="46"/>
     </row>
     <row r="504" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G504" s="48"/>
+      <c r="G504" s="46"/>
     </row>
     <row r="505" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G505" s="48"/>
+      <c r="G505" s="46"/>
     </row>
     <row r="506" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G506" s="48"/>
+      <c r="G506" s="46"/>
     </row>
     <row r="507" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G507" s="48"/>
+      <c r="G507" s="46"/>
     </row>
     <row r="508" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G508" s="48"/>
+      <c r="G508" s="46"/>
     </row>
     <row r="509" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G509" s="48"/>
+      <c r="G509" s="46"/>
     </row>
     <row r="510" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G510" s="48"/>
+      <c r="G510" s="46"/>
     </row>
     <row r="511" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G511" s="48"/>
+      <c r="G511" s="46"/>
     </row>
     <row r="512" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G512" s="48"/>
+      <c r="G512" s="46"/>
     </row>
     <row r="513" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G513" s="48"/>
+      <c r="G513" s="46"/>
     </row>
     <row r="514" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G514" s="48"/>
+      <c r="G514" s="46"/>
     </row>
     <row r="515" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G515" s="48"/>
+      <c r="G515" s="46"/>
     </row>
     <row r="516" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G516" s="48"/>
+      <c r="G516" s="46"/>
     </row>
     <row r="517" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G517" s="48"/>
+      <c r="G517" s="46"/>
     </row>
     <row r="518" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G518" s="48"/>
+      <c r="G518" s="46"/>
     </row>
     <row r="519" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G519" s="48"/>
+      <c r="G519" s="46"/>
     </row>
     <row r="520" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G520" s="48"/>
+      <c r="G520" s="46"/>
     </row>
     <row r="521" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G521" s="48"/>
+      <c r="G521" s="46"/>
     </row>
     <row r="522" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G522" s="48"/>
+      <c r="G522" s="46"/>
     </row>
     <row r="523" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G523" s="48"/>
+      <c r="G523" s="46"/>
     </row>
     <row r="524" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G524" s="48"/>
+      <c r="G524" s="46"/>
     </row>
     <row r="525" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G525" s="48"/>
+      <c r="G525" s="46"/>
     </row>
     <row r="526" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G526" s="48"/>
+      <c r="G526" s="46"/>
     </row>
     <row r="527" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G527" s="48"/>
+      <c r="G527" s="46"/>
     </row>
     <row r="528" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G528" s="48"/>
+      <c r="G528" s="46"/>
     </row>
     <row r="529" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G529" s="48"/>
+      <c r="G529" s="46"/>
     </row>
     <row r="530" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G530" s="48"/>
+      <c r="G530" s="46"/>
     </row>
     <row r="531" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G531" s="48"/>
+      <c r="G531" s="46"/>
     </row>
     <row r="532" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G532" s="48"/>
+      <c r="G532" s="46"/>
     </row>
     <row r="533" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G533" s="48"/>
+      <c r="G533" s="46"/>
     </row>
     <row r="534" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G534" s="48"/>
+      <c r="G534" s="46"/>
     </row>
     <row r="535" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G535" s="48"/>
+      <c r="G535" s="46"/>
     </row>
     <row r="536" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G536" s="48"/>
+      <c r="G536" s="46"/>
     </row>
     <row r="537" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G537" s="48"/>
+      <c r="G537" s="46"/>
     </row>
     <row r="538" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G538" s="48"/>
+      <c r="G538" s="46"/>
     </row>
     <row r="539" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G539" s="48"/>
+      <c r="G539" s="46"/>
     </row>
     <row r="540" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G540" s="48"/>
+      <c r="G540" s="46"/>
     </row>
     <row r="541" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G541" s="48"/>
+      <c r="G541" s="46"/>
     </row>
     <row r="542" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G542" s="48"/>
+      <c r="G542" s="46"/>
     </row>
     <row r="543" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G543" s="48"/>
+      <c r="G543" s="46"/>
     </row>
     <row r="544" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G544" s="48"/>
+      <c r="G544" s="46"/>
     </row>
     <row r="545" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G545" s="48"/>
+      <c r="G545" s="46"/>
     </row>
     <row r="546" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G546" s="48"/>
+      <c r="G546" s="46"/>
     </row>
     <row r="547" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G547" s="48"/>
+      <c r="G547" s="46"/>
     </row>
     <row r="548" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G548" s="48"/>
+      <c r="G548" s="46"/>
     </row>
     <row r="549" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G549" s="48"/>
+      <c r="G549" s="46"/>
     </row>
     <row r="550" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G550" s="48"/>
+      <c r="G550" s="46"/>
     </row>
     <row r="551" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G551" s="48"/>
+      <c r="G551" s="46"/>
     </row>
     <row r="552" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G552" s="48"/>
+      <c r="G552" s="46"/>
     </row>
     <row r="553" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G553" s="48"/>
+      <c r="G553" s="46"/>
     </row>
     <row r="554" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G554" s="48"/>
+      <c r="G554" s="46"/>
     </row>
     <row r="555" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G555" s="48"/>
+      <c r="G555" s="46"/>
     </row>
     <row r="556" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G556" s="48"/>
+      <c r="G556" s="46"/>
     </row>
     <row r="557" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G557" s="48"/>
+      <c r="G557" s="46"/>
     </row>
     <row r="558" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G558" s="48"/>
+      <c r="G558" s="46"/>
     </row>
     <row r="559" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G559" s="48"/>
+      <c r="G559" s="46"/>
     </row>
     <row r="560" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G560" s="48"/>
+      <c r="G560" s="46"/>
     </row>
     <row r="561" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G561" s="48"/>
+      <c r="G561" s="46"/>
     </row>
     <row r="562" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G562" s="48"/>
+      <c r="G562" s="46"/>
     </row>
     <row r="563" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G563" s="48"/>
+      <c r="G563" s="46"/>
     </row>
     <row r="564" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G564" s="48"/>
+      <c r="G564" s="46"/>
     </row>
     <row r="565" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G565" s="48"/>
+      <c r="G565" s="46"/>
     </row>
     <row r="566" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G566" s="48"/>
+      <c r="G566" s="46"/>
     </row>
     <row r="567" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G567" s="48"/>
+      <c r="G567" s="46"/>
     </row>
     <row r="568" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G568" s="48"/>
+      <c r="G568" s="46"/>
     </row>
     <row r="569" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G569" s="48"/>
+      <c r="G569" s="46"/>
     </row>
     <row r="570" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G570" s="48"/>
+      <c r="G570" s="46"/>
     </row>
     <row r="571" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G571" s="48"/>
+      <c r="G571" s="46"/>
     </row>
     <row r="572" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G572" s="48"/>
+      <c r="G572" s="46"/>
     </row>
     <row r="573" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G573" s="48"/>
+      <c r="G573" s="46"/>
     </row>
     <row r="574" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G574" s="48"/>
+      <c r="G574" s="46"/>
     </row>
     <row r="575" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G575" s="48"/>
+      <c r="G575" s="46"/>
     </row>
     <row r="576" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G576" s="48"/>
+      <c r="G576" s="46"/>
     </row>
     <row r="577" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G577" s="48"/>
+      <c r="G577" s="46"/>
     </row>
     <row r="578" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G578" s="48"/>
+      <c r="G578" s="46"/>
     </row>
     <row r="579" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G579" s="48"/>
+      <c r="G579" s="46"/>
     </row>
     <row r="580" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G580" s="48"/>
+      <c r="G580" s="46"/>
     </row>
     <row r="581" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G581" s="48"/>
+      <c r="G581" s="46"/>
     </row>
     <row r="582" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G582" s="48"/>
+      <c r="G582" s="46"/>
     </row>
     <row r="583" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G583" s="48"/>
+      <c r="G583" s="46"/>
     </row>
     <row r="584" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G584" s="48"/>
+      <c r="G584" s="46"/>
     </row>
     <row r="585" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G585" s="48"/>
+      <c r="G585" s="46"/>
     </row>
     <row r="586" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G586" s="48"/>
+      <c r="G586" s="46"/>
     </row>
     <row r="587" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G587" s="48"/>
+      <c r="G587" s="46"/>
     </row>
     <row r="588" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G588" s="48"/>
+      <c r="G588" s="46"/>
     </row>
     <row r="589" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G589" s="48"/>
+      <c r="G589" s="46"/>
     </row>
     <row r="590" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G590" s="48"/>
+      <c r="G590" s="46"/>
     </row>
     <row r="591" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G591" s="48"/>
+      <c r="G591" s="46"/>
     </row>
     <row r="592" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G592" s="48"/>
+      <c r="G592" s="46"/>
     </row>
     <row r="593" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G593" s="48"/>
+      <c r="G593" s="46"/>
     </row>
     <row r="594" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G594" s="48"/>
+      <c r="G594" s="46"/>
     </row>
     <row r="595" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G595" s="48"/>
+      <c r="G595" s="46"/>
     </row>
     <row r="596" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G596" s="48"/>
+      <c r="G596" s="46"/>
     </row>
     <row r="597" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G597" s="48"/>
+      <c r="G597" s="46"/>
     </row>
     <row r="598" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G598" s="48"/>
+      <c r="G598" s="46"/>
     </row>
     <row r="599" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G599" s="48"/>
+      <c r="G599" s="46"/>
     </row>
     <row r="600" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G600" s="48"/>
+      <c r="G600" s="46"/>
     </row>
     <row r="601" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G601" s="48"/>
+      <c r="G601" s="46"/>
     </row>
     <row r="602" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G602" s="48"/>
+      <c r="G602" s="46"/>
     </row>
     <row r="603" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G603" s="48"/>
+      <c r="G603" s="46"/>
     </row>
     <row r="604" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G604" s="48"/>
+      <c r="G604" s="46"/>
     </row>
     <row r="605" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G605" s="48"/>
+      <c r="G605" s="46"/>
     </row>
     <row r="606" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G606" s="48"/>
+      <c r="G606" s="46"/>
     </row>
     <row r="607" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G607" s="48"/>
+      <c r="G607" s="46"/>
     </row>
     <row r="608" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G608" s="48"/>
+      <c r="G608" s="46"/>
     </row>
     <row r="609" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G609" s="48"/>
+      <c r="G609" s="46"/>
     </row>
     <row r="610" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G610" s="48"/>
+      <c r="G610" s="46"/>
     </row>
     <row r="611" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G611" s="48"/>
+      <c r="G611" s="46"/>
     </row>
     <row r="612" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G612" s="48"/>
+      <c r="G612" s="46"/>
     </row>
     <row r="613" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G613" s="48"/>
+      <c r="G613" s="46"/>
     </row>
     <row r="614" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G614" s="48"/>
+      <c r="G614" s="46"/>
     </row>
     <row r="615" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G615" s="48"/>
+      <c r="G615" s="46"/>
     </row>
     <row r="616" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G616" s="48"/>
+      <c r="G616" s="46"/>
     </row>
     <row r="617" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G617" s="48"/>
+      <c r="G617" s="46"/>
     </row>
     <row r="618" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G618" s="48"/>
+      <c r="G618" s="46"/>
     </row>
     <row r="619" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G619" s="48"/>
+      <c r="G619" s="46"/>
     </row>
     <row r="620" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G620" s="48"/>
+      <c r="G620" s="46"/>
     </row>
     <row r="621" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G621" s="48"/>
+      <c r="G621" s="46"/>
     </row>
     <row r="622" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G622" s="48"/>
+      <c r="G622" s="46"/>
     </row>
     <row r="623" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G623" s="48"/>
+      <c r="G623" s="46"/>
     </row>
     <row r="624" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G624" s="48"/>
+      <c r="G624" s="46"/>
     </row>
     <row r="625" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G625" s="48"/>
+      <c r="G625" s="46"/>
     </row>
     <row r="626" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G626" s="48"/>
+      <c r="G626" s="46"/>
     </row>
     <row r="627" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G627" s="48"/>
+      <c r="G627" s="46"/>
     </row>
     <row r="628" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G628" s="48"/>
+      <c r="G628" s="46"/>
     </row>
     <row r="629" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G629" s="48"/>
+      <c r="G629" s="46"/>
     </row>
     <row r="630" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G630" s="48"/>
+      <c r="G630" s="46"/>
     </row>
     <row r="631" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G631" s="48"/>
+      <c r="G631" s="46"/>
     </row>
     <row r="632" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G632" s="48"/>
+      <c r="G632" s="46"/>
     </row>
     <row r="633" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G633" s="48"/>
+      <c r="G633" s="46"/>
     </row>
     <row r="634" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G634" s="48"/>
+      <c r="G634" s="46"/>
     </row>
     <row r="635" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G635" s="48"/>
+      <c r="G635" s="46"/>
     </row>
     <row r="636" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G636" s="48"/>
+      <c r="G636" s="46"/>
     </row>
     <row r="637" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G637" s="48"/>
+      <c r="G637" s="46"/>
     </row>
     <row r="638" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G638" s="48"/>
+      <c r="G638" s="46"/>
     </row>
     <row r="639" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G639" s="48"/>
+      <c r="G639" s="46"/>
     </row>
     <row r="640" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G640" s="48"/>
+      <c r="G640" s="46"/>
     </row>
     <row r="641" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G641" s="48"/>
+      <c r="G641" s="46"/>
     </row>
     <row r="642" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G642" s="48"/>
+      <c r="G642" s="46"/>
     </row>
     <row r="643" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G643" s="48"/>
+      <c r="G643" s="46"/>
     </row>
     <row r="644" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G644" s="48"/>
+      <c r="G644" s="46"/>
     </row>
     <row r="645" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G645" s="48"/>
+      <c r="G645" s="46"/>
     </row>
     <row r="646" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G646" s="48"/>
+      <c r="G646" s="46"/>
     </row>
     <row r="647" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G647" s="48"/>
+      <c r="G647" s="46"/>
     </row>
     <row r="648" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G648" s="48"/>
+      <c r="G648" s="46"/>
     </row>
     <row r="649" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G649" s="48"/>
+      <c r="G649" s="46"/>
     </row>
     <row r="650" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G650" s="48"/>
+      <c r="G650" s="46"/>
     </row>
     <row r="651" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G651" s="48"/>
+      <c r="G651" s="46"/>
     </row>
     <row r="652" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G652" s="48"/>
+      <c r="G652" s="46"/>
     </row>
     <row r="653" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G653" s="48"/>
+      <c r="G653" s="46"/>
     </row>
     <row r="654" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G654" s="48"/>
+      <c r="G654" s="46"/>
     </row>
     <row r="655" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G655" s="48"/>
+      <c r="G655" s="46"/>
     </row>
     <row r="656" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G656" s="48"/>
+      <c r="G656" s="46"/>
     </row>
     <row r="657" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G657" s="48"/>
+      <c r="G657" s="46"/>
     </row>
     <row r="658" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G658" s="48"/>
+      <c r="G658" s="46"/>
     </row>
     <row r="659" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G659" s="48"/>
+      <c r="G659" s="46"/>
     </row>
     <row r="660" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G660" s="48"/>
+      <c r="G660" s="46"/>
     </row>
     <row r="661" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G661" s="48"/>
+      <c r="G661" s="46"/>
     </row>
     <row r="662" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G662" s="48"/>
+      <c r="G662" s="46"/>
     </row>
     <row r="663" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G663" s="48"/>
+      <c r="G663" s="46"/>
     </row>
     <row r="664" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G664" s="48"/>
+      <c r="G664" s="46"/>
     </row>
     <row r="665" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G665" s="48"/>
+      <c r="G665" s="46"/>
     </row>
     <row r="666" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G666" s="48"/>
+      <c r="G666" s="46"/>
     </row>
     <row r="667" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G667" s="48"/>
+      <c r="G667" s="46"/>
     </row>
     <row r="668" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G668" s="48"/>
+      <c r="G668" s="46"/>
     </row>
     <row r="669" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G669" s="48"/>
+      <c r="G669" s="46"/>
     </row>
     <row r="670" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G670" s="48"/>
+      <c r="G670" s="46"/>
     </row>
     <row r="671" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G671" s="48"/>
+      <c r="G671" s="46"/>
     </row>
     <row r="672" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G672" s="48"/>
+      <c r="G672" s="46"/>
     </row>
     <row r="673" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G673" s="48"/>
+      <c r="G673" s="46"/>
     </row>
     <row r="674" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G674" s="48"/>
+      <c r="G674" s="46"/>
     </row>
     <row r="675" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G675" s="48"/>
+      <c r="G675" s="46"/>
     </row>
     <row r="676" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G676" s="48"/>
+      <c r="G676" s="46"/>
     </row>
     <row r="677" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G677" s="48"/>
+      <c r="G677" s="46"/>
     </row>
     <row r="678" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G678" s="48"/>
+      <c r="G678" s="46"/>
     </row>
     <row r="679" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G679" s="48"/>
+      <c r="G679" s="46"/>
     </row>
     <row r="680" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G680" s="48"/>
+      <c r="G680" s="46"/>
     </row>
     <row r="681" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G681" s="48"/>
+      <c r="G681" s="46"/>
     </row>
     <row r="682" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G682" s="48"/>
+      <c r="G682" s="46"/>
     </row>
     <row r="683" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G683" s="48"/>
+      <c r="G683" s="46"/>
     </row>
     <row r="684" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G684" s="48"/>
+      <c r="G684" s="46"/>
     </row>
     <row r="685" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G685" s="48"/>
+      <c r="G685" s="46"/>
     </row>
     <row r="686" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G686" s="48"/>
+      <c r="G686" s="46"/>
     </row>
     <row r="687" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G687" s="48"/>
+      <c r="G687" s="46"/>
     </row>
     <row r="688" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G688" s="48"/>
+      <c r="G688" s="46"/>
     </row>
     <row r="689" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G689" s="48"/>
+      <c r="G689" s="46"/>
     </row>
     <row r="690" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G690" s="48"/>
+      <c r="G690" s="46"/>
     </row>
     <row r="691" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G691" s="48"/>
+      <c r="G691" s="46"/>
     </row>
     <row r="692" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G692" s="48"/>
+      <c r="G692" s="46"/>
     </row>
     <row r="693" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G693" s="48"/>
+      <c r="G693" s="46"/>
     </row>
     <row r="694" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G694" s="48"/>
+      <c r="G694" s="46"/>
     </row>
     <row r="695" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G695" s="48"/>
+      <c r="G695" s="46"/>
     </row>
     <row r="696" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G696" s="48"/>
+      <c r="G696" s="46"/>
     </row>
     <row r="697" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G697" s="48"/>
+      <c r="G697" s="46"/>
     </row>
     <row r="698" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G698" s="48"/>
+      <c r="G698" s="46"/>
     </row>
     <row r="699" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G699" s="48"/>
+      <c r="G699" s="46"/>
     </row>
     <row r="700" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G700" s="48"/>
+      <c r="G700" s="46"/>
     </row>
     <row r="701" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G701" s="48"/>
+      <c r="G701" s="46"/>
     </row>
     <row r="702" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G702" s="48"/>
+      <c r="G702" s="46"/>
     </row>
     <row r="703" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G703" s="48"/>
+      <c r="G703" s="46"/>
     </row>
     <row r="704" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G704" s="48"/>
+      <c r="G704" s="46"/>
     </row>
     <row r="705" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G705" s="48"/>
+      <c r="G705" s="46"/>
     </row>
     <row r="706" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G706" s="48"/>
+      <c r="G706" s="46"/>
     </row>
     <row r="707" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G707" s="48"/>
+      <c r="G707" s="46"/>
     </row>
     <row r="708" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G708" s="48"/>
+      <c r="G708" s="46"/>
     </row>
     <row r="709" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G709" s="48"/>
+      <c r="G709" s="46"/>
     </row>
     <row r="710" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G710" s="48"/>
+      <c r="G710" s="46"/>
     </row>
     <row r="711" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G711" s="48"/>
+      <c r="G711" s="46"/>
     </row>
     <row r="712" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G712" s="48"/>
+      <c r="G712" s="46"/>
     </row>
     <row r="713" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G713" s="48"/>
+      <c r="G713" s="46"/>
     </row>
     <row r="714" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G714" s="48"/>
+      <c r="G714" s="46"/>
     </row>
     <row r="715" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G715" s="48"/>
+      <c r="G715" s="46"/>
     </row>
     <row r="716" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G716" s="48"/>
+      <c r="G716" s="46"/>
     </row>
     <row r="717" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G717" s="48"/>
+      <c r="G717" s="46"/>
     </row>
     <row r="718" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G718" s="48"/>
+      <c r="G718" s="46"/>
     </row>
     <row r="719" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G719" s="48"/>
+      <c r="G719" s="46"/>
     </row>
     <row r="720" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G720" s="48"/>
+      <c r="G720" s="46"/>
     </row>
     <row r="721" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G721" s="48"/>
+      <c r="G721" s="46"/>
     </row>
     <row r="722" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G722" s="48"/>
+      <c r="G722" s="46"/>
     </row>
     <row r="723" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G723" s="48"/>
+      <c r="G723" s="46"/>
     </row>
     <row r="724" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G724" s="48"/>
+      <c r="G724" s="46"/>
     </row>
     <row r="725" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G725" s="48"/>
+      <c r="G725" s="46"/>
     </row>
     <row r="726" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G726" s="48"/>
+      <c r="G726" s="46"/>
     </row>
     <row r="727" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G727" s="48"/>
+      <c r="G727" s="46"/>
     </row>
     <row r="728" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G728" s="48"/>
+      <c r="G728" s="46"/>
     </row>
     <row r="729" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G729" s="48"/>
+      <c r="G729" s="46"/>
     </row>
     <row r="730" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G730" s="48"/>
+      <c r="G730" s="46"/>
     </row>
     <row r="731" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G731" s="48"/>
+      <c r="G731" s="46"/>
     </row>
     <row r="732" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G732" s="48"/>
+      <c r="G732" s="46"/>
     </row>
     <row r="733" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G733" s="48"/>
+      <c r="G733" s="46"/>
     </row>
     <row r="734" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G734" s="48"/>
+      <c r="G734" s="46"/>
     </row>
     <row r="735" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G735" s="48"/>
+      <c r="G735" s="46"/>
     </row>
     <row r="736" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G736" s="48"/>
+      <c r="G736" s="46"/>
     </row>
     <row r="737" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G737" s="48"/>
+      <c r="G737" s="46"/>
     </row>
     <row r="738" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G738" s="48"/>
+      <c r="G738" s="46"/>
     </row>
     <row r="739" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G739" s="48"/>
+      <c r="G739" s="46"/>
     </row>
     <row r="740" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G740" s="48"/>
+      <c r="G740" s="46"/>
     </row>
     <row r="741" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G741" s="48"/>
+      <c r="G741" s="46"/>
     </row>
     <row r="742" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G742" s="48"/>
+      <c r="G742" s="46"/>
     </row>
     <row r="743" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G743" s="48"/>
+      <c r="G743" s="46"/>
     </row>
     <row r="744" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G744" s="48"/>
+      <c r="G744" s="46"/>
     </row>
     <row r="745" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G745" s="48"/>
+      <c r="G745" s="46"/>
     </row>
     <row r="746" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G746" s="48"/>
+      <c r="G746" s="46"/>
     </row>
     <row r="747" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G747" s="48"/>
+      <c r="G747" s="46"/>
     </row>
     <row r="748" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G748" s="48"/>
+      <c r="G748" s="46"/>
     </row>
     <row r="749" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G749" s="48"/>
+      <c r="G749" s="46"/>
     </row>
     <row r="750" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G750" s="48"/>
+      <c r="G750" s="46"/>
     </row>
     <row r="751" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G751" s="48"/>
+      <c r="G751" s="46"/>
     </row>
     <row r="752" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G752" s="48"/>
+      <c r="G752" s="46"/>
     </row>
     <row r="753" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G753" s="48"/>
+      <c r="G753" s="46"/>
     </row>
     <row r="754" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G754" s="48"/>
+      <c r="G754" s="46"/>
     </row>
     <row r="755" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G755" s="48"/>
+      <c r="G755" s="46"/>
     </row>
     <row r="756" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G756" s="48"/>
+      <c r="G756" s="46"/>
     </row>
     <row r="757" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G757" s="48"/>
+      <c r="G757" s="46"/>
     </row>
     <row r="758" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G758" s="48"/>
+      <c r="G758" s="46"/>
     </row>
     <row r="759" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G759" s="48"/>
+      <c r="G759" s="46"/>
     </row>
     <row r="760" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G760" s="48"/>
+      <c r="G760" s="46"/>
     </row>
     <row r="761" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G761" s="48"/>
+      <c r="G761" s="46"/>
     </row>
     <row r="762" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G762" s="48"/>
+      <c r="G762" s="46"/>
     </row>
     <row r="763" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G763" s="48"/>
+      <c r="G763" s="46"/>
     </row>
     <row r="764" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G764" s="48"/>
+      <c r="G764" s="46"/>
     </row>
     <row r="765" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G765" s="48"/>
+      <c r="G765" s="46"/>
     </row>
     <row r="766" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G766" s="48"/>
+      <c r="G766" s="46"/>
     </row>
     <row r="767" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G767" s="48"/>
+      <c r="G767" s="46"/>
     </row>
     <row r="768" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G768" s="48"/>
+      <c r="G768" s="46"/>
     </row>
     <row r="769" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G769" s="48"/>
+      <c r="G769" s="46"/>
     </row>
     <row r="770" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G770" s="48"/>
+      <c r="G770" s="46"/>
     </row>
     <row r="771" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G771" s="48"/>
+      <c r="G771" s="46"/>
     </row>
     <row r="772" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G772" s="48"/>
+      <c r="G772" s="46"/>
     </row>
     <row r="773" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G773" s="48"/>
+      <c r="G773" s="46"/>
     </row>
     <row r="774" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G774" s="48"/>
+      <c r="G774" s="46"/>
     </row>
     <row r="775" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G775" s="48"/>
+      <c r="G775" s="46"/>
     </row>
     <row r="776" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G776" s="48"/>
+      <c r="G776" s="46"/>
     </row>
     <row r="777" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G777" s="48"/>
+      <c r="G777" s="46"/>
     </row>
     <row r="778" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G778" s="48"/>
+      <c r="G778" s="46"/>
     </row>
     <row r="779" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G779" s="48"/>
+      <c r="G779" s="46"/>
     </row>
     <row r="780" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G780" s="48"/>
+      <c r="G780" s="46"/>
     </row>
     <row r="781" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G781" s="48"/>
+      <c r="G781" s="46"/>
     </row>
     <row r="782" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G782" s="48"/>
+      <c r="G782" s="46"/>
     </row>
     <row r="783" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G783" s="48"/>
+      <c r="G783" s="46"/>
     </row>
     <row r="784" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G784" s="48"/>
+      <c r="G784" s="46"/>
     </row>
     <row r="785" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G785" s="48"/>
+      <c r="G785" s="46"/>
     </row>
     <row r="786" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G786" s="48"/>
+      <c r="G786" s="46"/>
     </row>
     <row r="787" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G787" s="48"/>
+      <c r="G787" s="46"/>
     </row>
     <row r="788" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G788" s="48"/>
+      <c r="G788" s="46"/>
     </row>
     <row r="789" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G789" s="48"/>
+      <c r="G789" s="46"/>
     </row>
     <row r="790" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G790" s="48"/>
+      <c r="G790" s="46"/>
     </row>
     <row r="791" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G791" s="48"/>
+      <c r="G791" s="46"/>
     </row>
     <row r="792" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G792" s="48"/>
+      <c r="G792" s="46"/>
     </row>
     <row r="793" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G793" s="48"/>
+      <c r="G793" s="46"/>
     </row>
     <row r="794" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G794" s="48"/>
+      <c r="G794" s="46"/>
     </row>
     <row r="795" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G795" s="48"/>
+      <c r="G795" s="46"/>
     </row>
     <row r="796" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G796" s="48"/>
+      <c r="G796" s="46"/>
     </row>
     <row r="797" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G797" s="48"/>
+      <c r="G797" s="46"/>
     </row>
     <row r="798" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G798" s="48"/>
+      <c r="G798" s="46"/>
     </row>
     <row r="799" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G799" s="48"/>
+      <c r="G799" s="46"/>
     </row>
     <row r="800" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G800" s="48"/>
+      <c r="G800" s="46"/>
     </row>
     <row r="801" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G801" s="48"/>
+      <c r="G801" s="46"/>
     </row>
     <row r="802" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G802" s="48"/>
+      <c r="G802" s="46"/>
     </row>
     <row r="803" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G803" s="48"/>
+      <c r="G803" s="46"/>
     </row>
     <row r="804" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G804" s="48"/>
+      <c r="G804" s="46"/>
     </row>
     <row r="805" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G805" s="48"/>
+      <c r="G805" s="46"/>
     </row>
     <row r="806" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G806" s="48"/>
+      <c r="G806" s="46"/>
     </row>
     <row r="807" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G807" s="48"/>
+      <c r="G807" s="46"/>
     </row>
     <row r="808" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G808" s="48"/>
+      <c r="G808" s="46"/>
     </row>
     <row r="809" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G809" s="48"/>
+      <c r="G809" s="46"/>
     </row>
     <row r="810" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G810" s="48"/>
+      <c r="G810" s="46"/>
     </row>
     <row r="811" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G811" s="48"/>
+      <c r="G811" s="46"/>
     </row>
     <row r="812" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G812" s="48"/>
+      <c r="G812" s="46"/>
     </row>
     <row r="813" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G813" s="48"/>
+      <c r="G813" s="46"/>
     </row>
     <row r="814" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G814" s="48"/>
+      <c r="G814" s="46"/>
     </row>
     <row r="815" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G815" s="48"/>
+      <c r="G815" s="46"/>
     </row>
     <row r="816" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G816" s="48"/>
+      <c r="G816" s="46"/>
     </row>
     <row r="817" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G817" s="48"/>
+      <c r="G817" s="46"/>
     </row>
     <row r="818" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G818" s="48"/>
+      <c r="G818" s="46"/>
     </row>
     <row r="819" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G819" s="48"/>
+      <c r="G819" s="46"/>
     </row>
     <row r="820" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G820" s="48"/>
+      <c r="G820" s="46"/>
     </row>
     <row r="821" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G821" s="48"/>
+      <c r="G821" s="46"/>
     </row>
     <row r="822" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G822" s="48"/>
+      <c r="G822" s="46"/>
     </row>
     <row r="823" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G823" s="48"/>
+      <c r="G823" s="46"/>
     </row>
     <row r="824" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G824" s="48"/>
+      <c r="G824" s="46"/>
     </row>
     <row r="825" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G825" s="48"/>
+      <c r="G825" s="46"/>
     </row>
     <row r="826" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G826" s="48"/>
+      <c r="G826" s="46"/>
     </row>
     <row r="827" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G827" s="48"/>
+      <c r="G827" s="46"/>
     </row>
     <row r="828" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G828" s="48"/>
+      <c r="G828" s="46"/>
     </row>
     <row r="829" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G829" s="48"/>
+      <c r="G829" s="46"/>
     </row>
     <row r="830" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G830" s="48"/>
+      <c r="G830" s="46"/>
     </row>
     <row r="831" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G831" s="48"/>
+      <c r="G831" s="46"/>
     </row>
     <row r="832" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G832" s="48"/>
+      <c r="G832" s="46"/>
     </row>
     <row r="833" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G833" s="48"/>
+      <c r="G833" s="46"/>
     </row>
     <row r="834" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G834" s="48"/>
+      <c r="G834" s="46"/>
     </row>
     <row r="835" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G835" s="48"/>
+      <c r="G835" s="46"/>
     </row>
     <row r="836" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G836" s="48"/>
+      <c r="G836" s="46"/>
     </row>
     <row r="837" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G837" s="48"/>
+      <c r="G837" s="46"/>
     </row>
     <row r="838" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G838" s="48"/>
+      <c r="G838" s="46"/>
     </row>
     <row r="839" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G839" s="48"/>
+      <c r="G839" s="46"/>
     </row>
     <row r="840" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G840" s="48"/>
+      <c r="G840" s="46"/>
     </row>
     <row r="841" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G841" s="48"/>
+      <c r="G841" s="46"/>
     </row>
     <row r="842" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G842" s="48"/>
+      <c r="G842" s="46"/>
     </row>
     <row r="843" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G843" s="48"/>
+      <c r="G843" s="46"/>
     </row>
     <row r="844" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G844" s="48"/>
+      <c r="G844" s="46"/>
     </row>
     <row r="845" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G845" s="48"/>
+      <c r="G845" s="46"/>
     </row>
     <row r="846" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G846" s="48"/>
+      <c r="G846" s="46"/>
     </row>
     <row r="847" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G847" s="48"/>
+      <c r="G847" s="46"/>
     </row>
     <row r="848" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G848" s="48"/>
+      <c r="G848" s="46"/>
     </row>
     <row r="849" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G849" s="48"/>
+      <c r="G849" s="46"/>
     </row>
     <row r="850" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G850" s="48"/>
+      <c r="G850" s="46"/>
     </row>
     <row r="851" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G851" s="48"/>
+      <c r="G851" s="46"/>
     </row>
     <row r="852" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G852" s="48"/>
+      <c r="G852" s="46"/>
     </row>
     <row r="853" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G853" s="48"/>
+      <c r="G853" s="46"/>
     </row>
     <row r="854" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G854" s="48"/>
+      <c r="G854" s="46"/>
     </row>
     <row r="855" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G855" s="48"/>
+      <c r="G855" s="46"/>
     </row>
     <row r="856" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G856" s="48"/>
+      <c r="G856" s="46"/>
     </row>
     <row r="857" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G857" s="48"/>
+      <c r="G857" s="46"/>
     </row>
     <row r="858" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G858" s="48"/>
+      <c r="G858" s="46"/>
     </row>
     <row r="859" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G859" s="48"/>
+      <c r="G859" s="46"/>
     </row>
     <row r="860" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G860" s="48"/>
+      <c r="G860" s="46"/>
     </row>
     <row r="861" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G861" s="48"/>
+      <c r="G861" s="46"/>
     </row>
     <row r="862" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G862" s="48"/>
+      <c r="G862" s="46"/>
     </row>
     <row r="863" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G863" s="48"/>
+      <c r="G863" s="46"/>
     </row>
     <row r="864" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G864" s="48"/>
+      <c r="G864" s="46"/>
     </row>
     <row r="865" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G865" s="48"/>
+      <c r="G865" s="46"/>
     </row>
     <row r="866" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G866" s="48"/>
+      <c r="G866" s="46"/>
     </row>
     <row r="867" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G867" s="48"/>
+      <c r="G867" s="46"/>
     </row>
     <row r="868" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G868" s="48"/>
+      <c r="G868" s="46"/>
     </row>
     <row r="869" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G869" s="48"/>
+      <c r="G869" s="46"/>
     </row>
     <row r="870" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G870" s="48"/>
+      <c r="G870" s="46"/>
     </row>
     <row r="871" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G871" s="48"/>
+      <c r="G871" s="46"/>
     </row>
     <row r="872" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G872" s="48"/>
+      <c r="G872" s="46"/>
     </row>
     <row r="873" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G873" s="48"/>
+      <c r="G873" s="46"/>
     </row>
     <row r="874" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G874" s="48"/>
+      <c r="G874" s="46"/>
     </row>
     <row r="875" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G875" s="48"/>
+      <c r="G875" s="46"/>
     </row>
     <row r="876" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G876" s="48"/>
+      <c r="G876" s="46"/>
     </row>
     <row r="877" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G877" s="48"/>
+      <c r="G877" s="46"/>
     </row>
     <row r="878" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G878" s="48"/>
+      <c r="G878" s="46"/>
     </row>
     <row r="879" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G879" s="48"/>
+      <c r="G879" s="46"/>
     </row>
     <row r="880" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G880" s="48"/>
+      <c r="G880" s="46"/>
     </row>
     <row r="881" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G881" s="48"/>
+      <c r="G881" s="46"/>
     </row>
     <row r="882" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G882" s="48"/>
+      <c r="G882" s="46"/>
     </row>
     <row r="883" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G883" s="48"/>
+      <c r="G883" s="46"/>
     </row>
     <row r="884" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G884" s="48"/>
+      <c r="G884" s="46"/>
     </row>
     <row r="885" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G885" s="48"/>
+      <c r="G885" s="46"/>
     </row>
     <row r="886" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G886" s="48"/>
+      <c r="G886" s="46"/>
     </row>
     <row r="887" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G887" s="48"/>
+      <c r="G887" s="46"/>
     </row>
     <row r="888" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G888" s="48"/>
+      <c r="G888" s="46"/>
     </row>
     <row r="889" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G889" s="48"/>
+      <c r="G889" s="46"/>
     </row>
     <row r="890" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G890" s="48"/>
+      <c r="G890" s="46"/>
     </row>
     <row r="891" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G891" s="48"/>
+      <c r="G891" s="46"/>
     </row>
     <row r="892" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G892" s="48"/>
+      <c r="G892" s="46"/>
     </row>
     <row r="893" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G893" s="48"/>
+      <c r="G893" s="46"/>
     </row>
     <row r="894" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G894" s="48"/>
+      <c r="G894" s="46"/>
     </row>
     <row r="895" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G895" s="48"/>
+      <c r="G895" s="46"/>
     </row>
     <row r="896" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G896" s="48"/>
+      <c r="G896" s="46"/>
     </row>
     <row r="897" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G897" s="48"/>
+      <c r="G897" s="46"/>
     </row>
     <row r="898" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G898" s="48"/>
+      <c r="G898" s="46"/>
     </row>
     <row r="899" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G899" s="48"/>
+      <c r="G899" s="46"/>
     </row>
     <row r="900" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G900" s="48"/>
+      <c r="G900" s="46"/>
     </row>
     <row r="901" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G901" s="48"/>
+      <c r="G901" s="46"/>
     </row>
     <row r="902" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G902" s="48"/>
+      <c r="G902" s="46"/>
     </row>
     <row r="903" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G903" s="48"/>
+      <c r="G903" s="46"/>
     </row>
     <row r="904" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G904" s="48"/>
+      <c r="G904" s="46"/>
     </row>
     <row r="905" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G905" s="48"/>
+      <c r="G905" s="46"/>
     </row>
     <row r="906" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G906" s="48"/>
+      <c r="G906" s="46"/>
     </row>
     <row r="907" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G907" s="48"/>
+      <c r="G907" s="46"/>
     </row>
     <row r="908" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G908" s="48"/>
+      <c r="G908" s="46"/>
     </row>
     <row r="909" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G909" s="48"/>
+      <c r="G909" s="46"/>
     </row>
     <row r="910" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G910" s="48"/>
+      <c r="G910" s="46"/>
     </row>
     <row r="911" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G911" s="48"/>
+      <c r="G911" s="46"/>
     </row>
     <row r="912" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G912" s="48"/>
+      <c r="G912" s="46"/>
     </row>
     <row r="913" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G913" s="48"/>
+      <c r="G913" s="46"/>
     </row>
     <row r="914" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G914" s="48"/>
+      <c r="G914" s="46"/>
     </row>
     <row r="915" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G915" s="48"/>
+      <c r="G915" s="46"/>
     </row>
     <row r="916" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G916" s="48"/>
+      <c r="G916" s="46"/>
     </row>
     <row r="917" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G917" s="48"/>
+      <c r="G917" s="46"/>
     </row>
     <row r="918" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G918" s="48"/>
+      <c r="G918" s="46"/>
     </row>
     <row r="919" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G919" s="48"/>
+      <c r="G919" s="46"/>
     </row>
     <row r="920" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G920" s="48"/>
+      <c r="G920" s="46"/>
     </row>
     <row r="921" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G921" s="48"/>
+      <c r="G921" s="46"/>
     </row>
     <row r="922" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G922" s="48"/>
+      <c r="G922" s="46"/>
     </row>
     <row r="923" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G923" s="48"/>
+      <c r="G923" s="46"/>
     </row>
     <row r="924" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G924" s="48"/>
+      <c r="G924" s="46"/>
     </row>
     <row r="925" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G925" s="48"/>
+      <c r="G925" s="46"/>
     </row>
     <row r="926" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G926" s="48"/>
+      <c r="G926" s="46"/>
     </row>
     <row r="927" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G927" s="48"/>
+      <c r="G927" s="46"/>
     </row>
     <row r="928" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G928" s="48"/>
+      <c r="G928" s="46"/>
     </row>
     <row r="929" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G929" s="48"/>
+      <c r="G929" s="46"/>
     </row>
     <row r="930" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G930" s="48"/>
+      <c r="G930" s="46"/>
     </row>
     <row r="931" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G931" s="48"/>
+      <c r="G931" s="46"/>
     </row>
     <row r="932" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G932" s="48"/>
+      <c r="G932" s="46"/>
     </row>
     <row r="933" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G933" s="48"/>
+      <c r="G933" s="46"/>
     </row>
     <row r="934" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G934" s="48"/>
+      <c r="G934" s="46"/>
     </row>
     <row r="935" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G935" s="48"/>
+      <c r="G935" s="46"/>
     </row>
     <row r="936" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G936" s="48"/>
+      <c r="G936" s="46"/>
     </row>
     <row r="937" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G937" s="48"/>
+      <c r="G937" s="46"/>
     </row>
     <row r="938" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G938" s="48"/>
+      <c r="G938" s="46"/>
     </row>
     <row r="939" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G939" s="48"/>
+      <c r="G939" s="46"/>
     </row>
     <row r="940" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G940" s="48"/>
+      <c r="G940" s="46"/>
     </row>
     <row r="941" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G941" s="48"/>
+      <c r="G941" s="46"/>
     </row>
     <row r="942" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G942" s="48"/>
+      <c r="G942" s="46"/>
     </row>
     <row r="943" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G943" s="48"/>
+      <c r="G943" s="46"/>
     </row>
     <row r="944" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G944" s="48"/>
+      <c r="G944" s="46"/>
     </row>
     <row r="945" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G945" s="48"/>
+      <c r="G945" s="46"/>
     </row>
     <row r="946" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G946" s="48"/>
+      <c r="G946" s="46"/>
     </row>
     <row r="947" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G947" s="48"/>
+      <c r="G947" s="46"/>
     </row>
     <row r="948" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G948" s="48"/>
+      <c r="G948" s="46"/>
     </row>
     <row r="949" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G949" s="48"/>
+      <c r="G949" s="46"/>
     </row>
     <row r="950" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G950" s="48"/>
+      <c r="G950" s="46"/>
     </row>
     <row r="951" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G951" s="48"/>
+      <c r="G951" s="46"/>
     </row>
     <row r="952" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G952" s="48"/>
+      <c r="G952" s="46"/>
     </row>
     <row r="953" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G953" s="48"/>
+      <c r="G953" s="46"/>
     </row>
     <row r="954" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G954" s="48"/>
+      <c r="G954" s="46"/>
     </row>
     <row r="955" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G955" s="48"/>
+      <c r="G955" s="46"/>
     </row>
     <row r="956" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G956" s="48"/>
+      <c r="G956" s="46"/>
     </row>
     <row r="957" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G957" s="48"/>
+      <c r="G957" s="46"/>
     </row>
     <row r="958" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G958" s="48"/>
+      <c r="G958" s="46"/>
     </row>
     <row r="959" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G959" s="48"/>
+      <c r="G959" s="46"/>
     </row>
     <row r="960" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G960" s="48"/>
+      <c r="G960" s="46"/>
     </row>
     <row r="961" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G961" s="48"/>
+      <c r="G961" s="46"/>
     </row>
     <row r="962" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G962" s="48"/>
+      <c r="G962" s="46"/>
     </row>
     <row r="963" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G963" s="48"/>
+      <c r="G963" s="46"/>
     </row>
     <row r="964" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G964" s="48"/>
+      <c r="G964" s="46"/>
     </row>
     <row r="965" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G965" s="48"/>
+      <c r="G965" s="46"/>
     </row>
     <row r="966" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G966" s="48"/>
+      <c r="G966" s="46"/>
     </row>
     <row r="967" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G967" s="48"/>
+      <c r="G967" s="46"/>
     </row>
     <row r="968" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G968" s="48"/>
+      <c r="G968" s="46"/>
     </row>
     <row r="969" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G969" s="48"/>
+      <c r="G969" s="46"/>
     </row>
     <row r="970" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G970" s="48"/>
+      <c r="G970" s="46"/>
     </row>
     <row r="971" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G971" s="48"/>
+      <c r="G971" s="46"/>
     </row>
     <row r="972" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G972" s="48"/>
+      <c r="G972" s="46"/>
     </row>
     <row r="973" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G973" s="48"/>
+      <c r="G973" s="46"/>
     </row>
     <row r="974" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G974" s="48"/>
+      <c r="G974" s="46"/>
     </row>
     <row r="975" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G975" s="48"/>
+      <c r="G975" s="46"/>
     </row>
     <row r="976" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G976" s="48"/>
+      <c r="G976" s="46"/>
     </row>
     <row r="977" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G977" s="48"/>
+      <c r="G977" s="46"/>
     </row>
     <row r="978" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G978" s="48"/>
+      <c r="G978" s="46"/>
     </row>
     <row r="979" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G979" s="48"/>
+      <c r="G979" s="46"/>
     </row>
     <row r="980" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G980" s="48"/>
+      <c r="G980" s="46"/>
     </row>
     <row r="981" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G981" s="48"/>
+      <c r="G981" s="46"/>
     </row>
     <row r="982" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G982" s="48"/>
+      <c r="G982" s="46"/>
     </row>
     <row r="983" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G983" s="48"/>
+      <c r="G983" s="46"/>
     </row>
     <row r="984" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G984" s="48"/>
+      <c r="G984" s="46"/>
     </row>
     <row r="985" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G985" s="48"/>
+      <c r="G985" s="46"/>
     </row>
     <row r="986" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G986" s="48"/>
+      <c r="G986" s="46"/>
     </row>
     <row r="987" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G987" s="48"/>
+      <c r="G987" s="46"/>
     </row>
     <row r="988" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G988" s="48"/>
+      <c r="G988" s="46"/>
     </row>
     <row r="989" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G989" s="48"/>
+      <c r="G989" s="46"/>
     </row>
     <row r="990" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G990" s="48"/>
+      <c r="G990" s="46"/>
     </row>
     <row r="991" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G991" s="48"/>
+      <c r="G991" s="46"/>
     </row>
     <row r="992" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G992" s="48"/>
+      <c r="G992" s="46"/>
     </row>
     <row r="993" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G993" s="48"/>
+      <c r="G993" s="46"/>
     </row>
     <row r="994" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G994" s="48"/>
+      <c r="G994" s="46"/>
     </row>
     <row r="995" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G995" s="48"/>
+      <c r="G995" s="46"/>
     </row>
     <row r="996" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G996" s="48"/>
+      <c r="G996" s="46"/>
     </row>
     <row r="997" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G997" s="48"/>
+      <c r="G997" s="46"/>
     </row>
     <row r="998" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G998" s="48"/>
+      <c r="G998" s="46"/>
     </row>
     <row r="999" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G999" s="48"/>
+      <c r="G999" s="46"/>
     </row>
     <row r="1000" spans="7:7" ht="15.75" customHeight="1">
-      <c r="G1000" s="48"/>
+      <c r="G1000" s="46"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="F3" r:id="rId5"/>
-    <hyperlink ref="C4" r:id="rId6"/>
-    <hyperlink ref="D4" r:id="rId7"/>
-    <hyperlink ref="F4" r:id="rId8"/>
-    <hyperlink ref="C5" r:id="rId9"/>
-    <hyperlink ref="D5" r:id="rId10"/>
-    <hyperlink ref="F5" r:id="rId11"/>
-    <hyperlink ref="C6" r:id="rId12"/>
-    <hyperlink ref="D6" r:id="rId13"/>
-    <hyperlink ref="F6" r:id="rId14"/>
-    <hyperlink ref="C7" r:id="rId15"/>
-    <hyperlink ref="D7" r:id="rId16"/>
-    <hyperlink ref="F7" r:id="rId17"/>
-    <hyperlink ref="D3" r:id="rId18"/>
-    <hyperlink ref="D8" r:id="rId19"/>
-    <hyperlink ref="F8" r:id="rId20" display="http://www.sevahub.es/public/Canonical/{REPLACE_HERE}/1"/>
-    <hyperlink ref="F10" r:id="rId21" display="http://www.sevahub.es/public/Canonical/{REPLACE_HERE}/1"/>
-    <hyperlink ref="F11" r:id="rId22" display="http://www.sevahub.es/public/Canonical/{REPLACE_HERE}/1"/>
-    <hyperlink ref="D10" r:id="rId23"/>
-    <hyperlink ref="D11" r:id="rId24"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="F4" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="C5" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="D5" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="F5" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="C6" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="D6" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="F6" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="C7" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="D7" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
+    <hyperlink ref="F7" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
+    <hyperlink ref="D3" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
+    <hyperlink ref="D8" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
+    <hyperlink ref="F8" r:id="rId20" display="http://www.sevahub.es/public/Canonical/{REPLACE_HERE}/1" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
+    <hyperlink ref="F10" r:id="rId21" display="http://www.sevahub.es/public/Canonical/{REPLACE_HERE}/1" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
+    <hyperlink ref="F11" r:id="rId22" display="http://www.sevahub.es/public/Canonical/{REPLACE_HERE}/1" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
+    <hyperlink ref="D10" r:id="rId23" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
+    <hyperlink ref="D11" r:id="rId24" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -75503,7 +75384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -75511,28 +75392,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="2" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>7513</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="39" t="s">
         <v>7522</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="41"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -75542,7 +75423,7 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="41"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -75552,9 +75433,9 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="41"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="36"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -75562,9 +75443,9 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="38"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -75572,9 +75453,9 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="38"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -75582,14 +75463,14 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="41"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -75617,9 +75498,9 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="38"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -75627,9 +75508,9 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="41"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="38"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -75637,7 +75518,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="41"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -75647,7 +75528,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="41"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -75657,7 +75538,7 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="41"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -75667,7 +75548,7 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="41"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="3"/>

--- a/RBS Collection/RBS Collection.xlsx
+++ b/RBS Collection/RBS Collection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tracihaddock/Git/iGEM-distribution/RBS Collection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinoo/_dev/distribution/iGEM-distribution/RBS Collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D239AA6-2FB3-FE42-A644-B014020C7403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1401A2-2D16-5C40-8924-9653940DCA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29640" yWindow="2980" windowWidth="36360" windowHeight="21080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31820" yWindow="180" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts and Devices" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Ontology Terms'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7629" uniqueCount="7572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7661" uniqueCount="7580">
   <si>
     <t>Collection Name</t>
   </si>
@@ -22717,27 +22716,12 @@
     <t>Medium strength T7.2 RBS</t>
   </si>
   <si>
-    <t>SpoVG ribosome binding site (RBS) for B. subtilis</t>
-  </si>
-  <si>
     <t>BBa_Z0262</t>
   </si>
   <si>
-    <t>BBa_K143021</t>
-  </si>
-  <si>
-    <t>BBa_K2963006</t>
-  </si>
-  <si>
     <t>Z0262</t>
   </si>
   <si>
-    <t>K143021</t>
-  </si>
-  <si>
-    <t>K2963006</t>
-  </si>
-  <si>
     <t>RBSs in vector</t>
   </si>
   <si>
@@ -22822,7 +22806,46 @@
     <t>gggccc aagttcactt aaaaaggaga tcaacaatga aagcaatttt cgtactgaaa catcttaatc atgcaatgga ggctttct</t>
   </si>
   <si>
-    <t>RBS - recognized by Corynebacterium glutamicum</t>
+    <t>pSB1C5</t>
+  </si>
+  <si>
+    <t>agag aaaggtggtgaa tacta</t>
+  </si>
+  <si>
+    <t>partial BioBrick scar added before and after</t>
+  </si>
+  <si>
+    <t>SpoVG ribosome binding site (RBS) for B. subtilis - K143021</t>
+  </si>
+  <si>
+    <t>SpoVG</t>
+  </si>
+  <si>
+    <t>BBa_B0034_m1, BBa_B0034_m0, BBa_B0033_m0, BBa_B0032_m0, BBa_B0031_m0, BBa_B0030_m0, BBa_Z0262, SpoVG, BCD1, BCD8, BCD12, BCD13</t>
+  </si>
+  <si>
+    <t>D1003</t>
+  </si>
+  <si>
+    <t>D1004</t>
+  </si>
+  <si>
+    <t>D2001</t>
+  </si>
+  <si>
+    <t>D2002</t>
+  </si>
+  <si>
+    <t>Includes BsaI and fusion site</t>
+  </si>
+  <si>
+    <t>L0 RBS 5' Flanking Region</t>
+  </si>
+  <si>
+    <t>L0 RBS 3' Flanking Region</t>
+  </si>
+  <si>
+    <t>Extra nonsense bases for synthesis</t>
   </si>
 </sst>
 </file>
@@ -23261,11 +23284,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -23280,6 +23298,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -23490,12 +23513,22 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Parts and Devices"/>
+      <sheetName val="Libraries and Composites"/>
       <sheetName val="Ontology Terms"/>
       <sheetName val="Organism Terms"/>
+      <sheetName val="Sequence_alteration_terms"/>
+      <sheetName val="data_source"/>
+      <sheetName val="template_information"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -23750,8 +23783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -23825,14 +23858,14 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="46" customHeight="1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="61" t="s">
         <v>7534</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -24077,20 +24110,22 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="56" t="s">
-        <v>7544</v>
-      </c>
-      <c r="B15" s="57" t="s">
+      <c r="A15" s="53" t="s">
+        <v>7539</v>
+      </c>
+      <c r="B15" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="56" t="s">
-        <v>7545</v>
-      </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="57"/>
+      <c r="C15" s="54" t="s">
+        <v>7568</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="53" t="s">
+        <v>7540</v>
+      </c>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="54"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18" t="b">
         <v>0</v>
@@ -24103,24 +24138,26 @@
         <v>22</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>7546</v>
+        <v>7541</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A16" s="56" t="s">
-        <v>7547</v>
-      </c>
-      <c r="B16" s="57" t="s">
+      <c r="A16" s="53" t="s">
+        <v>7542</v>
+      </c>
+      <c r="B16" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="56" t="s">
-        <v>7548</v>
-      </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="57"/>
+      <c r="C16" s="53" t="s">
+        <v>7568</v>
+      </c>
+      <c r="D16" s="54"/>
+      <c r="E16" s="53" t="s">
+        <v>7543</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="54"/>
       <c r="I16" s="18"/>
       <c r="J16" s="21" t="b">
         <v>0</v>
@@ -24133,24 +24170,26 @@
         <v>21</v>
       </c>
       <c r="M16" s="41" t="s">
-        <v>7549</v>
+        <v>7544</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="56" t="s">
-        <v>7550</v>
-      </c>
-      <c r="B17" s="57" t="s">
+      <c r="A17" s="53" t="s">
+        <v>7545</v>
+      </c>
+      <c r="B17" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="56" t="s">
-        <v>7551</v>
-      </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
+      <c r="C17" s="54" t="s">
+        <v>7568</v>
+      </c>
+      <c r="D17" s="54"/>
+      <c r="E17" s="53" t="s">
+        <v>7546</v>
+      </c>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18" t="b">
         <v>0</v>
@@ -24163,24 +24202,26 @@
         <v>20</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>7552</v>
+        <v>7547</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" s="56" t="s">
-        <v>7553</v>
-      </c>
-      <c r="B18" s="57" t="s">
+      <c r="A18" s="53" t="s">
+        <v>7548</v>
+      </c>
+      <c r="B18" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="56" t="s">
-        <v>7554</v>
-      </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
+      <c r="C18" s="54" t="s">
+        <v>7568</v>
+      </c>
+      <c r="D18" s="57"/>
+      <c r="E18" s="53" t="s">
+        <v>7549</v>
+      </c>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18" t="b">
         <v>0</v>
@@ -24193,24 +24234,26 @@
         <v>22</v>
       </c>
       <c r="M18" s="41" t="s">
-        <v>7555</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="56" t="s">
-        <v>7556</v>
-      </c>
-      <c r="B19" s="57" t="s">
+      <c r="A19" s="53" t="s">
+        <v>7551</v>
+      </c>
+      <c r="B19" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="56" t="s">
-        <v>7557</v>
-      </c>
-      <c r="F19" s="57"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="57"/>
+      <c r="C19" s="54" t="s">
+        <v>7568</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="53" t="s">
+        <v>7552</v>
+      </c>
+      <c r="F19" s="54"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="54"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18" t="b">
         <v>0</v>
@@ -24223,24 +24266,26 @@
         <v>23</v>
       </c>
       <c r="M19" s="41" t="s">
-        <v>7558</v>
+        <v>7553</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A20" s="56" t="s">
-        <v>7559</v>
-      </c>
-      <c r="B20" s="57" t="s">
+      <c r="A20" s="53" t="s">
+        <v>7554</v>
+      </c>
+      <c r="B20" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="56" t="s">
-        <v>7560</v>
-      </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="57"/>
+      <c r="C20" s="54" t="s">
+        <v>7568</v>
+      </c>
+      <c r="D20" s="57"/>
+      <c r="E20" s="53" t="s">
+        <v>7555</v>
+      </c>
+      <c r="F20" s="54"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="54"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18" t="b">
         <v>0</v>
@@ -24253,28 +24298,18 @@
         <v>24</v>
       </c>
       <c r="M20" s="52" t="s">
-        <v>7561</v>
+        <v>7556</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A21" s="56" t="s">
-        <v>7537</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="56" t="s">
-        <v>7535</v>
-      </c>
-      <c r="F21" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="57" t="s">
-        <v>7540</v>
-      </c>
-      <c r="H21" s="57"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18" t="b">
         <v>0</v>
@@ -24289,24 +24324,24 @@
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="56" t="s">
-        <v>7538</v>
-      </c>
-      <c r="B22" s="57" t="s">
+      <c r="A22" s="53" t="s">
+        <v>7536</v>
+      </c>
+      <c r="B22" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="56" t="s">
-        <v>7536</v>
-      </c>
-      <c r="F22" s="57" t="s">
+      <c r="C22" s="54"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="53" t="s">
+        <v>7535</v>
+      </c>
+      <c r="F22" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="56" t="s">
-        <v>7541</v>
-      </c>
-      <c r="H22" s="57"/>
+      <c r="G22" s="53" t="s">
+        <v>7537</v>
+      </c>
+      <c r="H22" s="54"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18" t="b">
         <v>0</v>
@@ -24321,24 +24356,22 @@
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A23" s="56" t="s">
-        <v>7539</v>
-      </c>
-      <c r="B23" s="57" t="s">
+      <c r="A23" s="53" t="s">
+        <v>7570</v>
+      </c>
+      <c r="B23" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="56" t="s">
-        <v>7571</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="56" t="s">
-        <v>7542</v>
-      </c>
-      <c r="H23" s="57"/>
+      <c r="C23" s="54" t="s">
+        <v>7568</v>
+      </c>
+      <c r="D23" s="57"/>
+      <c r="E23" s="53" t="s">
+        <v>7569</v>
+      </c>
+      <c r="F23" s="54"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18" t="b">
         <v>0</v>
@@ -24348,25 +24381,27 @@
       </c>
       <c r="L23" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="18"/>
+        <v>21</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>7567</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="56" t="s">
-        <v>7563</v>
-      </c>
-      <c r="B24" s="57" t="s">
+      <c r="A24" s="53" t="s">
+        <v>7558</v>
+      </c>
+      <c r="B24" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="56" t="s">
-        <v>7564</v>
-      </c>
-      <c r="F24" s="57"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="57"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="53" t="s">
+        <v>7559</v>
+      </c>
+      <c r="F24" s="54"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="54"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18" t="b">
         <v>0</v>
@@ -24379,24 +24414,24 @@
         <v>84</v>
       </c>
       <c r="M24" s="41" t="s">
-        <v>7562</v>
+        <v>7557</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A25" s="56" t="s">
-        <v>7565</v>
-      </c>
-      <c r="B25" s="57" t="s">
+      <c r="A25" s="53" t="s">
+        <v>7560</v>
+      </c>
+      <c r="B25" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="56" t="s">
-        <v>7564</v>
-      </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="57"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="53" t="s">
+        <v>7559</v>
+      </c>
+      <c r="F25" s="54"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="54"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18" t="b">
         <v>0</v>
@@ -24409,24 +24444,24 @@
         <v>84</v>
       </c>
       <c r="M25" s="41" t="s">
-        <v>7568</v>
+        <v>7563</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A26" s="56" t="s">
-        <v>7566</v>
-      </c>
-      <c r="B26" s="57" t="s">
+      <c r="A26" s="53" t="s">
+        <v>7561</v>
+      </c>
+      <c r="B26" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="56" t="s">
-        <v>7564</v>
-      </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="53" t="s">
+        <v>7559</v>
+      </c>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18" t="b">
         <v>0</v>
@@ -24439,24 +24474,24 @@
         <v>84</v>
       </c>
       <c r="M26" s="41" t="s">
-        <v>7569</v>
+        <v>7564</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A27" s="56" t="s">
-        <v>7567</v>
-      </c>
-      <c r="B27" s="57" t="s">
+      <c r="A27" s="53" t="s">
+        <v>7562</v>
+      </c>
+      <c r="B27" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="56" t="s">
-        <v>7564</v>
-      </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="57"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="53" t="s">
+        <v>7559</v>
+      </c>
+      <c r="F27" s="54"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="54"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18" t="b">
         <v>0</v>
@@ -24469,18 +24504,18 @@
         <v>84</v>
       </c>
       <c r="M27" s="41" t="s">
-        <v>7570</v>
+        <v>7565</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="57"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18" t="b">
         <v>0</v>
@@ -24495,14 +24530,14 @@
       <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A29" s="56"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="57"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="54"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18" t="b">
         <v>0</v>
@@ -24517,14 +24552,14 @@
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="56"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="57"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="54"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18" t="b">
         <v>0</v>
@@ -24539,14 +24574,26 @@
       <c r="M30" s="23"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="56"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="57"/>
+      <c r="A31" s="53" t="s">
+        <v>7574</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>7579</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="53" t="s">
+        <v>7574</v>
+      </c>
+      <c r="H31" s="54" t="s">
+        <v>7417</v>
+      </c>
       <c r="I31" s="18"/>
       <c r="J31" s="18" t="b">
         <v>0</v>
@@ -24561,14 +24608,26 @@
       <c r="M31" s="23"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="57"/>
+      <c r="A32" s="53" t="s">
+        <v>7575</v>
+      </c>
+      <c r="B32" s="54" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>7579</v>
+      </c>
+      <c r="D32" s="57"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="53" t="s">
+        <v>7575</v>
+      </c>
+      <c r="H32" s="54" t="s">
+        <v>7417</v>
+      </c>
       <c r="I32" s="18"/>
       <c r="J32" s="18" t="b">
         <v>0</v>
@@ -24583,14 +24642,28 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A33" s="56"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="57"/>
+      <c r="A33" s="53" t="s">
+        <v>7572</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>7576</v>
+      </c>
+      <c r="D33" s="57"/>
+      <c r="E33" s="53" t="s">
+        <v>7577</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="53" t="s">
+        <v>7572</v>
+      </c>
+      <c r="H33" s="54" t="s">
+        <v>7417</v>
+      </c>
       <c r="I33" s="18"/>
       <c r="J33" s="18" t="b">
         <v>0</v>
@@ -24605,14 +24678,28 @@
       <c r="M33" s="24"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A34" s="56"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="57"/>
+      <c r="A34" s="53" t="s">
+        <v>7573</v>
+      </c>
+      <c r="B34" s="54" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>7576</v>
+      </c>
+      <c r="D34" s="57"/>
+      <c r="E34" s="53" t="s">
+        <v>7578</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="53" t="s">
+        <v>7573</v>
+      </c>
+      <c r="H34" s="54" t="s">
+        <v>7417</v>
+      </c>
       <c r="I34" s="18"/>
       <c r="J34" s="18" t="b">
         <v>0</v>
@@ -24627,22 +24714,22 @@
       <c r="M34" s="21"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A35" s="61" t="s">
-        <v>7501</v>
-      </c>
-      <c r="B35" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="63" t="s">
-        <v>7501</v>
-      </c>
-      <c r="H35" s="57"/>
+      <c r="A35" s="58" t="s">
+        <v>7566</v>
+      </c>
+      <c r="B35" s="58" t="s">
+        <v>4473</v>
+      </c>
+      <c r="C35" s="58"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58" t="s">
+        <v>7521</v>
+      </c>
+      <c r="G35" s="60" t="s">
+        <v>7566</v>
+      </c>
+      <c r="H35" s="54"/>
       <c r="I35" s="41"/>
       <c r="J35" s="18" t="b">
         <v>0</v>
@@ -25692,7 +25779,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>data_source!$B$2:$B$11</xm:f>
@@ -25721,17 +25808,11 @@
           <x14:formula1>
             <xm:f>'Ontology Terms'!$F$2:$F$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J15:K34 J36:K38</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
-          <x14:formula1>
-            <xm:f>'[Terminators.xlsx]Ontology Terms'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>J35:K35</xm:sqref>
+          <xm:sqref>J15:K38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
-            <xm:f>'[Terminators.xlsx]Organism Terms'!#REF!</xm:f>
+            <xm:f>'/Users/vinoo/_dev/distribution/iGEM-distribution/Terminators/[Terminators.xlsx]Organism Terms'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>H35:I35</xm:sqref>
         </x14:dataValidation>
@@ -25746,7 +25827,7 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -26240,22 +26321,32 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1">
       <c r="A14" s="52" t="s">
-        <v>7543</v>
+        <v>7538</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
-      <c r="D14" s="21" t="b">
+      <c r="D14" s="18" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>7501</v>
+        <v>7566</v>
       </c>
       <c r="F14" s="18"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="G14" s="52" t="s">
+        <v>7574</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>7572</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>7571</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>7573</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>7575</v>
+      </c>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
@@ -26447,18 +26538,12 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'Ontology Terms'!$F$2:$F$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D15:D16</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
-          <x14:formula1>
-            <xm:f>'[Terminators.xlsx]Ontology Terms'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D14</xm:sqref>
+          <xm:sqref>D14:D16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/RBS Collection/RBS Collection.xlsx
+++ b/RBS Collection/RBS Collection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinoo/_dev/distribution/iGEM-distribution/RBS Collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1401A2-2D16-5C40-8924-9653940DCA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F67290-E27A-2749-BA52-880637C10376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31820" yWindow="180" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6140" yWindow="500" windowWidth="22660" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts and Devices" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Ontology Terms'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7661" uniqueCount="7580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7682" uniqueCount="7586">
   <si>
     <t>Collection Name</t>
   </si>
@@ -22821,9 +22821,6 @@
     <t>SpoVG</t>
   </si>
   <si>
-    <t>BBa_B0034_m1, BBa_B0034_m0, BBa_B0033_m0, BBa_B0032_m0, BBa_B0031_m0, BBa_B0030_m0, BBa_Z0262, SpoVG, BCD1, BCD8, BCD12, BCD13</t>
-  </si>
-  <si>
     <t>D1003</t>
   </si>
   <si>
@@ -22846,6 +22843,27 @@
   </si>
   <si>
     <t>Extra nonsense bases for synthesis</t>
+  </si>
+  <si>
+    <t>BBa_B0032_m0, BBa_Z0262, SpoVG, BCD13</t>
+  </si>
+  <si>
+    <t>BBa_B0034_m1, BBa_B0034_m0, BBa_B0033_m0, BBa_B0031_m0, BBa_B0030_m0, BCD1, BCD8, BCD12</t>
+  </si>
+  <si>
+    <t>Unable to build</t>
+  </si>
+  <si>
+    <t>BBa_B0032_m0, BBa_Z0262, SpoVG</t>
+  </si>
+  <si>
+    <t>RBSs in pSB1C3</t>
+  </si>
+  <si>
+    <t>Synthesized as linear fragments and cloned into pSB1C3</t>
+  </si>
+  <si>
+    <t>Constructs belonged to original build plan, but unable to synthesize as clonal product by TWIST</t>
   </si>
 </sst>
 </file>
@@ -23222,7 +23240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -23298,6 +23316,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -23522,13 +23543,13 @@
       <sheetName val="template_information"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -23783,8 +23804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -23858,14 +23879,14 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="46" customHeight="1">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>7534</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -24575,13 +24596,13 @@
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
       <c r="A31" s="53" t="s">
-        <v>7574</v>
+        <v>7573</v>
       </c>
       <c r="B31" s="54" t="s">
         <v>1356</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>7579</v>
+        <v>7578</v>
       </c>
       <c r="D31" s="57"/>
       <c r="E31" s="53"/>
@@ -24589,7 +24610,7 @@
         <v>42</v>
       </c>
       <c r="G31" s="53" t="s">
-        <v>7574</v>
+        <v>7573</v>
       </c>
       <c r="H31" s="54" t="s">
         <v>7417</v>
@@ -24609,13 +24630,13 @@
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
       <c r="A32" s="53" t="s">
-        <v>7575</v>
+        <v>7574</v>
       </c>
       <c r="B32" s="54" t="s">
         <v>1356</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>7579</v>
+        <v>7578</v>
       </c>
       <c r="D32" s="57"/>
       <c r="E32" s="53"/>
@@ -24623,7 +24644,7 @@
         <v>42</v>
       </c>
       <c r="G32" s="53" t="s">
-        <v>7575</v>
+        <v>7574</v>
       </c>
       <c r="H32" s="54" t="s">
         <v>7417</v>
@@ -24643,23 +24664,23 @@
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1">
       <c r="A33" s="53" t="s">
-        <v>7572</v>
+        <v>7571</v>
       </c>
       <c r="B33" s="54" t="s">
         <v>1356</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>7576</v>
+        <v>7575</v>
       </c>
       <c r="D33" s="57"/>
       <c r="E33" s="53" t="s">
-        <v>7577</v>
+        <v>7576</v>
       </c>
       <c r="F33" s="54" t="s">
         <v>42</v>
       </c>
       <c r="G33" s="53" t="s">
-        <v>7572</v>
+        <v>7571</v>
       </c>
       <c r="H33" s="54" t="s">
         <v>7417</v>
@@ -24679,23 +24700,23 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1">
       <c r="A34" s="53" t="s">
-        <v>7573</v>
+        <v>7572</v>
       </c>
       <c r="B34" s="54" t="s">
         <v>1356</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>7576</v>
+        <v>7575</v>
       </c>
       <c r="D34" s="57"/>
       <c r="E34" s="53" t="s">
-        <v>7578</v>
+        <v>7577</v>
       </c>
       <c r="F34" s="54" t="s">
         <v>42</v>
       </c>
       <c r="G34" s="53" t="s">
-        <v>7573</v>
+        <v>7572</v>
       </c>
       <c r="H34" s="54" t="s">
         <v>7417</v>
@@ -24717,7 +24738,7 @@
       <c r="A35" s="58" t="s">
         <v>7566</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="54" t="s">
         <v>4473</v>
       </c>
       <c r="C35" s="58"/>
@@ -24758,20 +24779,30 @@
       <c r="AA35" s="49"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A36" s="41"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="41" t="s">
+        <v>7501</v>
+      </c>
+      <c r="B36" s="54" t="s">
+        <v>4473</v>
+      </c>
       <c r="C36" s="18"/>
       <c r="D36" s="20"/>
       <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="20"/>
+      <c r="F36" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>7501</v>
+      </c>
       <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
+      <c r="I36" s="18" t="s">
+        <v>7419</v>
+      </c>
       <c r="J36" s="18" t="b">
         <v>0</v>
       </c>
       <c r="K36" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="15">
         <f t="shared" si="0"/>
@@ -25784,7 +25815,7 @@
           <x14:formula1>
             <xm:f>data_source!$B$2:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>F36:F38 F15:F34</xm:sqref>
+          <xm:sqref>F15:F34 F36:F38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
@@ -25796,7 +25827,7 @@
           <x14:formula1>
             <xm:f>'Ontology Terms'!$B$2:$B$2518</xm:f>
           </x14:formula1>
-          <xm:sqref>B36:B38 B15:B34</xm:sqref>
+          <xm:sqref>B15:B38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
@@ -25812,7 +25843,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
-            <xm:f>'/Users/vinoo/_dev/distribution/iGEM-distribution/Terminators/[Terminators.xlsx]Organism Terms'!#REF!</xm:f>
+            <xm:f>'[Terminators.xlsx]Organism Terms'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>H35:I35</xm:sqref>
         </x14:dataValidation>
@@ -25827,7 +25858,7 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B15" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -26333,19 +26364,19 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="52" t="s">
+        <v>7573</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>7571</v>
+      </c>
+      <c r="I14" s="61" t="s">
+        <v>7580</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>7572</v>
+      </c>
+      <c r="K14" s="18" t="s">
         <v>7574</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>7572</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>7571</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>7573</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>7575</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
@@ -26362,19 +26393,35 @@
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="16">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="52" t="s">
+        <v>7581</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>7585</v>
+      </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="41" t="s">
+        <v>7566</v>
+      </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="20"/>
+      <c r="G15" s="52" t="s">
+        <v>7573</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>7571</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>7579</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>7572</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>7574</v>
+      </c>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
@@ -26390,19 +26437,35 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="52" t="s">
+        <v>7583</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>7584</v>
+      </c>
       <c r="C16" s="18"/>
       <c r="D16" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>7501</v>
+      </c>
       <c r="F16" s="18"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="G16" s="52" t="s">
+        <v>7573</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>7571</v>
+      </c>
+      <c r="I16" s="61" t="s">
+        <v>7582</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>7572</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>7574</v>
+      </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
